--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
@@ -695,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05227602163694004</v>
+        <v>0.05297038464616081</v>
       </c>
       <c r="E2">
-        <v>0.1446971150797848</v>
+        <v>0.1356762298869252</v>
       </c>
       <c r="F2">
-        <v>0.2159902207704085</v>
+        <v>0.1994750483853086</v>
       </c>
       <c r="G2">
-        <v>0.2172915037649183</v>
+        <v>0.2006395413159719</v>
       </c>
       <c r="H2">
-        <v>0.001261706832069276</v>
+        <v>0.007318663073265654</v>
       </c>
       <c r="I2">
-        <v>0.04225580596258013</v>
+        <v>0.04400348784835137</v>
       </c>
       <c r="J2">
-        <v>0.02002500917777559</v>
+        <v>0.02410957867706498</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02383260028749569</v>
+        <v>0.02751691816342766</v>
       </c>
       <c r="O2">
-        <v>0.06408475540338457</v>
+        <v>0.06353779161999124</v>
       </c>
       <c r="P2">
-        <v>0.02553444209348987</v>
+        <v>0.0290398634109632</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03572876697831024</v>
+        <v>0.03816256716667495</v>
       </c>
       <c r="S2">
-        <v>0.07227525240818347</v>
+        <v>0.0708673086435348</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000274576494853592</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.002738795501720588</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004338494239685599</v>
+        <v>0.01007202049086012</v>
       </c>
       <c r="AB2">
-        <v>0.04104287734301845</v>
+        <v>0.04291806153536796</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.001637287706416448</v>
       </c>
       <c r="AD2">
-        <v>0.03805326964814988</v>
+        <v>0.04024271955301729</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001312158373805273</v>
+        <v>0.007363811180126733</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.00143534469999695</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -814,28 +814,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2963964809008053</v>
+        <v>0.3836777703248824</v>
       </c>
       <c r="G3">
-        <v>0.002965733538903559</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2650021891096919</v>
+        <v>0.3390294852746024</v>
       </c>
       <c r="I3">
-        <v>0.0096831372908373</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04613074204241689</v>
+        <v>0.02775523124625909</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06836262997400276</v>
+        <v>0.05937294303220547</v>
       </c>
       <c r="M3">
-        <v>0.02661474433962446</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.01590951728843793</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.09341925912490752</v>
+        <v>0.09500794089017352</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.05009577398566298</v>
+        <v>0.03339421420575456</v>
       </c>
       <c r="T3">
-        <v>0.03712953881284548</v>
+        <v>0.0149539140430099</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0337780559748183</v>
+        <v>0.01018750739529834</v>
       </c>
       <c r="AD3">
-        <v>0.002147524538128404</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.05236467307891722</v>
+        <v>0.03662099358781446</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -924,31 +924,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2690853829751593</v>
+        <v>0.2777137229045041</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1730596773045425</v>
+        <v>0.1774583878446083</v>
       </c>
       <c r="H4">
-        <v>0.03410949806375992</v>
+        <v>0.03238789157352606</v>
       </c>
       <c r="I4">
-        <v>0.009864619963309946</v>
+        <v>0.007075103081405495</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08866487474151809</v>
+        <v>0.08934626048058314</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1307204712476435</v>
+        <v>0.1332542733342242</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.03614280509614683</v>
+        <v>0.03451075936593603</v>
       </c>
       <c r="Q4">
-        <v>0.07851399728811799</v>
+        <v>0.07874826889973113</v>
       </c>
       <c r="R4">
-        <v>0.003088005375383761</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1180369118025626</v>
+        <v>0.1200120431101582</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.004594321142818709</v>
+        <v>0.001572664224808762</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0312059318817504</v>
+        <v>0.02935643246147893</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02086900131924758</v>
+        <v>0.01856419271903557</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002044501798038871</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1037,52 +1037,52 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1135939084770893</v>
+        <v>0.1301141207654352</v>
       </c>
       <c r="F5">
-        <v>0.03799156432914786</v>
+        <v>0.02220605487709263</v>
       </c>
       <c r="G5">
-        <v>0.2321456331076833</v>
+        <v>0.2993243146660582</v>
       </c>
       <c r="H5">
-        <v>0.1507498863031252</v>
+        <v>0.1831472607901927</v>
       </c>
       <c r="I5">
-        <v>0.01125732688188755</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04587723851279347</v>
+        <v>0.03346136526426405</v>
       </c>
       <c r="K5">
-        <v>0.05332320784153089</v>
+        <v>0.04408908002606689</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02243360034225561</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004771827899888273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1028473450473246</v>
+        <v>0.1147754313673516</v>
       </c>
       <c r="Q5">
-        <v>0.05635548472940122</v>
+        <v>0.04841708252249372</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.07157356726276075</v>
+        <v>0.07013802082422903</v>
       </c>
       <c r="T5">
-        <v>0.009750854928658364</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001898044066896292</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.05628988292730669</v>
+        <v>0.04832344834140326</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02663998569534371</v>
+        <v>0.006003820555412632</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.006795286756806496</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02907864705958124</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2592514713256358</v>
+        <v>0.3646139365389375</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1616800671913459</v>
+        <v>0.2061356765166351</v>
       </c>
       <c r="H6">
-        <v>0.04974572538659951</v>
+        <v>0.02432872310287647</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1168,34 +1168,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04162897780336663</v>
+        <v>0.01114526996469504</v>
       </c>
       <c r="L6">
-        <v>0.02164350736664281</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.07289734555966348</v>
+        <v>0.06193224551067783</v>
       </c>
       <c r="N6">
-        <v>0.03476709252170095</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01165902253182157</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.008944451578672482</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1304176016924338</v>
+        <v>0.1553582875855918</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.143425360499828</v>
+        <v>0.1764858607805863</v>
       </c>
       <c r="T6">
-        <v>0.008036127199859631</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00223209534457359</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01316612998742762</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01099808812383458</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0004282888270125547</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2111958382500011</v>
+        <v>0.4431557311930721</v>
       </c>
       <c r="F7">
-        <v>0.002963971392375139</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1080032530394242</v>
+        <v>0.1455300680043812</v>
       </c>
       <c r="H7">
-        <v>0.06889089728300291</v>
+        <v>0.03272311780420604</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1287,31 +1287,31 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06236314078591775</v>
+        <v>0.01389591376997547</v>
       </c>
       <c r="N7">
-        <v>0.1292556979003926</v>
+        <v>0.2068258770319322</v>
       </c>
       <c r="O7">
-        <v>0.06056529858791484</v>
+        <v>0.008710618960301642</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.04786689887674664</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.08020572247141872</v>
+        <v>0.06535707443679159</v>
       </c>
       <c r="S7">
-        <v>0.05754515818850337</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.08660079651025968</v>
+        <v>0.08380159879933981</v>
       </c>
       <c r="U7">
-        <v>0.018784222276267</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05526159143579328</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.006470829698231236</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.004026683303751535</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1701213255576947</v>
+        <v>0.1543911917533435</v>
       </c>
       <c r="E8">
-        <v>0.03833610006462307</v>
+        <v>0.04102669884218635</v>
       </c>
       <c r="F8">
-        <v>0.09210134291440521</v>
+        <v>0.08727672018643186</v>
       </c>
       <c r="G8">
-        <v>0.02971371324532922</v>
+        <v>0.03360953575887485</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001318731795652535</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1394,34 +1394,34 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01898878167730328</v>
+        <v>0.02438371834142813</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2487578208404685</v>
+        <v>0.2220360007878049</v>
       </c>
       <c r="N8">
-        <v>0.0007403199191836197</v>
+        <v>0.008685998009897963</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.09198561993192131</v>
+        <v>0.08717717278133869</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.004472512155076398</v>
       </c>
       <c r="R8">
-        <v>0.1144664057728273</v>
+        <v>0.1065156295587459</v>
       </c>
       <c r="S8">
-        <v>0.01374643333479289</v>
+        <v>0.01987413724621212</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.006996857440131413</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1430,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02122538325441559</v>
+        <v>0.02630769125026503</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0106192971595993</v>
+        <v>0.01718410727177015</v>
       </c>
       <c r="Z8">
-        <v>0.02925324249154224</v>
+        <v>0.03321342888643774</v>
       </c>
       <c r="AA8">
-        <v>0.1100867363481906</v>
+        <v>0.102748143472314</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.009857477487702906</v>
+        <v>0.01652877356140047</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.002171052474924364</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.002577011832475159</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.001504886593288575</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1486,88 +1486,88 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2071925908274842</v>
+        <v>0.1788186158131467</v>
       </c>
       <c r="E9">
-        <v>0.01494502467427134</v>
+        <v>0.02209860809295809</v>
       </c>
       <c r="F9">
-        <v>0.1070653383884434</v>
+        <v>0.09719498806463224</v>
       </c>
       <c r="G9">
-        <v>0.06059323725274482</v>
+        <v>0.05931098154901403</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003485089925620689</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.003314509101678206</v>
+        <v>0.01261742439425821</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2128119718523673</v>
+        <v>0.1833995291387309</v>
       </c>
       <c r="N9">
-        <v>0.03988702193953626</v>
+        <v>0.04243129725092648</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.002123546320110294</v>
       </c>
       <c r="P9">
-        <v>0.07761068082577373</v>
+        <v>0.07318358311951975</v>
       </c>
       <c r="Q9">
-        <v>0.01478045850711876</v>
+        <v>0.02196445393172372</v>
       </c>
       <c r="R9">
-        <v>0.03630660165670372</v>
+        <v>0.03951254251402727</v>
       </c>
       <c r="S9">
-        <v>0.02710491938889393</v>
+        <v>0.03201134109491233</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.005936420839470588</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.003276018411073404</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0008267670861836623</v>
       </c>
       <c r="W9">
-        <v>0.02488662770756966</v>
+        <v>0.03020299211875048</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.00598617971657023</v>
       </c>
       <c r="Y9">
-        <v>0.02210503817821479</v>
+        <v>0.02793544334693678</v>
       </c>
       <c r="Z9">
-        <v>0.01326874770105068</v>
+        <v>0.02073210891982968</v>
       </c>
       <c r="AA9">
-        <v>0.1205610562992468</v>
+        <v>0.1081966826893902</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.0007946395871883999</v>
       </c>
       <c r="AC9">
-        <v>0.01756617569890246</v>
+        <v>0.02423536756947906</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.001378536951427091</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>9.227508959011932E-05</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.00164139533381585</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.0006131711307135677</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2583300996009282</v>
+        <v>0.2126274514699924</v>
       </c>
       <c r="E10">
-        <v>0.009332969278207958</v>
+        <v>0.01694011090849707</v>
       </c>
       <c r="F10">
-        <v>0.09274999371546158</v>
+        <v>0.08249771652637171</v>
       </c>
       <c r="G10">
-        <v>0.05069592422213673</v>
+        <v>0.04944733956712312</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1620,79 +1620,79 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.01763414424469991</v>
+        <v>0.02346402084522233</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.004895967388760553</v>
       </c>
       <c r="M10">
-        <v>0.1553915903370249</v>
+        <v>0.1317278720527109</v>
       </c>
       <c r="N10">
-        <v>0.009419804982185438</v>
+        <v>0.01700835526117341</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.07883050322537609</v>
+        <v>0.07155836123161188</v>
       </c>
       <c r="Q10">
-        <v>0.01264368341228511</v>
+        <v>0.01954200773926466</v>
       </c>
       <c r="R10">
-        <v>0.168230744621879</v>
+        <v>0.14181818897245</v>
       </c>
       <c r="S10">
-        <v>0.05688814045567798</v>
+        <v>0.05431381463594378</v>
       </c>
       <c r="T10">
-        <v>0.0006999775664941125</v>
+        <v>0.01015542553093807</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.003044983786755931</v>
       </c>
       <c r="W10">
-        <v>0.0009511026885574473</v>
+        <v>0.01035278526444609</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.003135276445138575</v>
       </c>
       <c r="Y10">
-        <v>0.0008860309607725609</v>
+        <v>0.01030164526399925</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.00807312348199375</v>
       </c>
       <c r="AA10">
-        <v>0.06788103794698204</v>
+        <v>0.06295315466508522</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.0002907998334747957</v>
       </c>
       <c r="AC10">
-        <v>0.007431181195573542</v>
+        <v>0.01544549186722567</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.002727750063823698</v>
       </c>
       <c r="AE10">
-        <v>0.00879915947348687</v>
+        <v>0.01652058871996369</v>
       </c>
       <c r="AF10">
-        <v>0.001697683902892145</v>
+        <v>0.01093952492749753</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.0004976487674041297</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.008931535297858503</v>
       </c>
       <c r="AI10">
-        <v>0.001506228169378649</v>
+        <v>0.01078905948527357</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2517886641541192</v>
+        <v>0.2175140595559246</v>
       </c>
       <c r="E11">
-        <v>0.01288086948245276</v>
+        <v>0.019083071463209</v>
       </c>
       <c r="F11">
-        <v>0.1095623215395651</v>
+        <v>0.0993843278047901</v>
       </c>
       <c r="G11">
-        <v>0.06648009238741419</v>
+        <v>0.06360127890240132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1733,34 +1733,34 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02295155768209277</v>
+        <v>0.02744753949144789</v>
       </c>
       <c r="L11">
-        <v>0.002787870730426003</v>
+        <v>0.01070007283423736</v>
       </c>
       <c r="M11">
-        <v>0.1537092998136863</v>
+        <v>0.1360517313622197</v>
       </c>
       <c r="N11">
-        <v>0.01561537698407867</v>
+        <v>0.02135428670857296</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.07740346435857652</v>
+        <v>0.07267396527716311</v>
       </c>
       <c r="Q11">
-        <v>0.03315360601362522</v>
+        <v>0.03592111204180266</v>
       </c>
       <c r="R11">
-        <v>0.1220126202525712</v>
+        <v>0.1097252422946942</v>
       </c>
       <c r="S11">
-        <v>0.05438681582335467</v>
+        <v>0.05355689830283687</v>
       </c>
       <c r="T11">
-        <v>0.009173292823991793</v>
+        <v>0.01600364870607804</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1769,43 +1769,43 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.004150410369109583</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.001505047059082474</v>
       </c>
       <c r="Y11">
-        <v>0.003494997957417885</v>
+        <v>0.01128739546451026</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.002495111877801517</v>
       </c>
       <c r="AA11">
-        <v>0.06218898343725086</v>
+        <v>0.06003718845418209</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.004077616525920535</v>
       </c>
       <c r="AC11">
-        <v>0.001054971573175049</v>
+        <v>0.009260769053835754</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.001102608581687768</v>
       </c>
       <c r="AE11">
-        <v>0.001355194986201753</v>
+        <v>0.009510127299251435</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.002868943551627778</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.006635287848656949</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.004052259168956086</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1951,106 +1951,106 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05227602163694004</v>
+        <v>0.05297038464616081</v>
       </c>
       <c r="E2">
-        <v>0.1969731367167249</v>
+        <v>0.188646614533086</v>
       </c>
       <c r="F2">
-        <v>0.4129633574871333</v>
+        <v>0.3881216629183946</v>
       </c>
       <c r="G2">
-        <v>0.6302548612520517</v>
+        <v>0.5887612042343665</v>
       </c>
       <c r="H2">
-        <v>0.6315165680841209</v>
+        <v>0.5960798673076322</v>
       </c>
       <c r="I2">
-        <v>0.6737723740467011</v>
+        <v>0.6400833551559836</v>
       </c>
       <c r="J2">
-        <v>0.6937973832244767</v>
+        <v>0.6641929338330486</v>
       </c>
       <c r="K2">
-        <v>0.6937973832244767</v>
+        <v>0.6641929338330486</v>
       </c>
       <c r="L2">
-        <v>0.6937973832244767</v>
+        <v>0.6641929338330486</v>
       </c>
       <c r="M2">
-        <v>0.6937973832244767</v>
+        <v>0.6641929338330486</v>
       </c>
       <c r="N2">
-        <v>0.7176299835119724</v>
+        <v>0.6917098519964762</v>
       </c>
       <c r="O2">
-        <v>0.7817147389153569</v>
+        <v>0.7552476436164675</v>
       </c>
       <c r="P2">
-        <v>0.8072491810088468</v>
+        <v>0.7842875070274307</v>
       </c>
       <c r="Q2">
-        <v>0.8072491810088468</v>
+        <v>0.7842875070274307</v>
       </c>
       <c r="R2">
-        <v>0.8429779479871571</v>
+        <v>0.8224500741941057</v>
       </c>
       <c r="S2">
-        <v>0.9152532003953405</v>
+        <v>0.8933173828376404</v>
       </c>
       <c r="T2">
-        <v>0.9152532003953405</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="U2">
-        <v>0.9152532003953405</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="V2">
-        <v>0.9152532003953405</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="W2">
-        <v>0.9152532003953405</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="X2">
-        <v>0.9152532003953405</v>
+        <v>0.8963307548342146</v>
       </c>
       <c r="Y2">
-        <v>0.9152532003953405</v>
+        <v>0.8963307548342146</v>
       </c>
       <c r="Z2">
-        <v>0.9152532003953405</v>
+        <v>0.8963307548342146</v>
       </c>
       <c r="AA2">
-        <v>0.9195916946350261</v>
+        <v>0.9064027753250747</v>
       </c>
       <c r="AB2">
-        <v>0.9606345719780446</v>
+        <v>0.9493208368604427</v>
       </c>
       <c r="AC2">
-        <v>0.9606345719780446</v>
+        <v>0.9509581245668591</v>
       </c>
       <c r="AD2">
-        <v>0.9986878416261945</v>
+        <v>0.9912008441198764</v>
       </c>
       <c r="AE2">
-        <v>0.9986878416261945</v>
+        <v>0.9912008441198764</v>
       </c>
       <c r="AF2">
-        <v>0.9986878416261945</v>
+        <v>0.9912008441198764</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>0.9985646553000032</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>0.9985646553000032</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2070,79 +2070,79 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2963964809008053</v>
+        <v>0.3836777703248824</v>
       </c>
       <c r="G3">
-        <v>0.2993622144397089</v>
+        <v>0.3836777703248824</v>
       </c>
       <c r="H3">
-        <v>0.5643644035494009</v>
+        <v>0.7227072555994847</v>
       </c>
       <c r="I3">
-        <v>0.5740475408402381</v>
+        <v>0.7227072555994847</v>
       </c>
       <c r="J3">
-        <v>0.620178282882655</v>
+        <v>0.7504624868457438</v>
       </c>
       <c r="K3">
-        <v>0.620178282882655</v>
+        <v>0.7504624868457438</v>
       </c>
       <c r="L3">
-        <v>0.6885409128566577</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="M3">
-        <v>0.7151556571962822</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="N3">
-        <v>0.7151556571962822</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="O3">
-        <v>0.7151556571962822</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="P3">
-        <v>0.7310651744847201</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="Q3">
-        <v>0.8244844336096276</v>
+        <v>0.9048433707681228</v>
       </c>
       <c r="R3">
-        <v>0.8244844336096276</v>
+        <v>0.9048433707681228</v>
       </c>
       <c r="S3">
-        <v>0.8745802075952906</v>
+        <v>0.9382375849738774</v>
       </c>
       <c r="T3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="U3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="V3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="W3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="X3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="Y3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="Z3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="AA3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="AB3">
-        <v>0.9117097464081362</v>
+        <v>0.9531914990168874</v>
       </c>
       <c r="AC3">
-        <v>0.9454878023829545</v>
+        <v>0.9633790064121858</v>
       </c>
       <c r="AD3">
-        <v>0.9476353269210829</v>
+        <v>0.9633790064121858</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -2180,103 +2180,103 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2690853829751593</v>
+        <v>0.2777137229045041</v>
       </c>
       <c r="F4">
-        <v>0.2690853829751593</v>
+        <v>0.2777137229045041</v>
       </c>
       <c r="G4">
-        <v>0.4421450602797018</v>
+        <v>0.4551721107491124</v>
       </c>
       <c r="H4">
-        <v>0.4762545583434617</v>
+        <v>0.4875600023226385</v>
       </c>
       <c r="I4">
-        <v>0.4861191783067716</v>
+        <v>0.494635105404044</v>
       </c>
       <c r="J4">
-        <v>0.4861191783067716</v>
+        <v>0.494635105404044</v>
       </c>
       <c r="K4">
-        <v>0.5747840530482897</v>
+        <v>0.5839813658846271</v>
       </c>
       <c r="L4">
-        <v>0.5747840530482897</v>
+        <v>0.5839813658846271</v>
       </c>
       <c r="M4">
-        <v>0.7055045242959332</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="N4">
-        <v>0.7055045242959332</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="O4">
-        <v>0.7055045242959332</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="P4">
-        <v>0.7416473293920801</v>
+        <v>0.7517463985847873</v>
       </c>
       <c r="Q4">
-        <v>0.8201613266801981</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="R4">
-        <v>0.8232493320555819</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="S4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="T4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="U4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="V4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="W4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="X4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="Y4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="Z4">
-        <v>0.9458805650009632</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AA4">
-        <v>0.9458805650009632</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AB4">
-        <v>0.9458805650009632</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AC4">
-        <v>0.9770864968827135</v>
+        <v>0.9814358072809642</v>
       </c>
       <c r="AD4">
-        <v>0.9770864968827135</v>
+        <v>0.9814358072809642</v>
       </c>
       <c r="AE4">
-        <v>0.9979554982019612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.9979554982019612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.9979554982019612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,103 +2293,103 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1135939084770893</v>
+        <v>0.1301141207654352</v>
       </c>
       <c r="F5">
-        <v>0.1515854728062371</v>
+        <v>0.1523201756425279</v>
       </c>
       <c r="G5">
-        <v>0.3837311059139205</v>
+        <v>0.4516444903085861</v>
       </c>
       <c r="H5">
-        <v>0.5344809922170457</v>
+        <v>0.6347917510987787</v>
       </c>
       <c r="I5">
-        <v>0.5457383190989332</v>
+        <v>0.6347917510987787</v>
       </c>
       <c r="J5">
-        <v>0.5916155576117267</v>
+        <v>0.6682531163630427</v>
       </c>
       <c r="K5">
-        <v>0.6449387654532576</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="L5">
-        <v>0.6449387654532576</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="M5">
-        <v>0.6673723657955132</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="N5">
-        <v>0.6673723657955132</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="O5">
-        <v>0.6678495485855021</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="P5">
-        <v>0.7706968936328267</v>
+        <v>0.8271176277564612</v>
       </c>
       <c r="Q5">
-        <v>0.8270523783622279</v>
+        <v>0.875534710278955</v>
       </c>
       <c r="R5">
-        <v>0.8270523783622279</v>
+        <v>0.875534710278955</v>
       </c>
       <c r="S5">
-        <v>0.8986259456249887</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="T5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="U5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="V5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="W5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="X5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="Y5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="Z5">
-        <v>0.9102748446205433</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AA5">
-        <v>0.9102748446205433</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AB5">
-        <v>0.9102748446205433</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AC5">
-        <v>0.9665647275478499</v>
+        <v>0.9939961794445873</v>
       </c>
       <c r="AD5">
-        <v>0.9665647275478499</v>
+        <v>0.9939961794445873</v>
       </c>
       <c r="AE5">
-        <v>0.9932047132431937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9932047132431937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.9932047132431937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9932047132431937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.9932047132431937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2403,85 +2403,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02907864705958124</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.288330118385217</v>
+        <v>0.3646139365389375</v>
       </c>
       <c r="F6">
-        <v>0.288330118385217</v>
+        <v>0.3646139365389375</v>
       </c>
       <c r="G6">
-        <v>0.4500101855765629</v>
+        <v>0.5707496130555727</v>
       </c>
       <c r="H6">
-        <v>0.4997559109631624</v>
+        <v>0.5950783361584492</v>
       </c>
       <c r="I6">
-        <v>0.4997559109631624</v>
+        <v>0.5950783361584492</v>
       </c>
       <c r="J6">
-        <v>0.4997559109631624</v>
+        <v>0.5950783361584492</v>
       </c>
       <c r="K6">
-        <v>0.541384888766529</v>
+        <v>0.6062236061231442</v>
       </c>
       <c r="L6">
-        <v>0.5630283961331718</v>
+        <v>0.6062236061231442</v>
       </c>
       <c r="M6">
-        <v>0.6359257416928352</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="N6">
-        <v>0.6706928342145362</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="O6">
-        <v>0.6823518567463578</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="P6">
-        <v>0.6912963083250303</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="Q6">
-        <v>0.8217139100174641</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="R6">
-        <v>0.8217139100174641</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="S6">
-        <v>0.9651392705172921</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.9731753977171517</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.9731753977171517</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9731753977171517</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9731753977171517</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9731753977171517</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9754074930617253</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9754074930617253</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9885736230491529</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9885736230491529</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9995717111729875</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9995717111729875</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2519,103 +2519,103 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2111958382500011</v>
+        <v>0.4431557311930721</v>
       </c>
       <c r="F7">
-        <v>0.2141598096423762</v>
+        <v>0.4431557311930721</v>
       </c>
       <c r="G7">
-        <v>0.3221630626818004</v>
+        <v>0.5886857991974532</v>
       </c>
       <c r="H7">
-        <v>0.3910539599648033</v>
+        <v>0.6214089170016592</v>
       </c>
       <c r="I7">
-        <v>0.3910539599648033</v>
+        <v>0.6214089170016592</v>
       </c>
       <c r="J7">
-        <v>0.3910539599648033</v>
+        <v>0.6214089170016592</v>
       </c>
       <c r="K7">
-        <v>0.3910539599648033</v>
+        <v>0.6214089170016592</v>
       </c>
       <c r="L7">
-        <v>0.3910539599648033</v>
+        <v>0.6214089170016592</v>
       </c>
       <c r="M7">
-        <v>0.4534171007507211</v>
+        <v>0.6353048307716347</v>
       </c>
       <c r="N7">
-        <v>0.5826727986511137</v>
+        <v>0.8421307078035669</v>
       </c>
       <c r="O7">
-        <v>0.6432380972390285</v>
+        <v>0.8508413267638686</v>
       </c>
       <c r="P7">
-        <v>0.6432380972390285</v>
+        <v>0.8508413267638686</v>
       </c>
       <c r="Q7">
-        <v>0.6911049961157751</v>
+        <v>0.8508413267638686</v>
       </c>
       <c r="R7">
-        <v>0.7713107185871939</v>
+        <v>0.9161984012006602</v>
       </c>
       <c r="S7">
-        <v>0.8288558767756973</v>
+        <v>0.9161984012006602</v>
       </c>
       <c r="T7">
-        <v>0.9154566732859569</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9342408955622239</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9895024869980171</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9959733166962483</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1701213255576947</v>
+        <v>0.1543911917533435</v>
       </c>
       <c r="E8">
-        <v>0.2084574256223177</v>
+        <v>0.1954178905955299</v>
       </c>
       <c r="F8">
-        <v>0.3005587685367229</v>
+        <v>0.2826946107819617</v>
       </c>
       <c r="G8">
-        <v>0.3302724817820522</v>
+        <v>0.3163041465408366</v>
       </c>
       <c r="H8">
-        <v>0.3302724817820522</v>
+        <v>0.3176228783364892</v>
       </c>
       <c r="I8">
-        <v>0.3302724817820522</v>
+        <v>0.3176228783364892</v>
       </c>
       <c r="J8">
-        <v>0.3302724817820522</v>
+        <v>0.3176228783364892</v>
       </c>
       <c r="K8">
-        <v>0.3492612634593554</v>
+        <v>0.3420065966779173</v>
       </c>
       <c r="L8">
-        <v>0.3492612634593554</v>
+        <v>0.3420065966779173</v>
       </c>
       <c r="M8">
-        <v>0.5980190842998239</v>
+        <v>0.5640425974657222</v>
       </c>
       <c r="N8">
-        <v>0.5987594042190075</v>
+        <v>0.5727285954756202</v>
       </c>
       <c r="O8">
-        <v>0.5987594042190075</v>
+        <v>0.5727285954756202</v>
       </c>
       <c r="P8">
-        <v>0.6907450241509289</v>
+        <v>0.6599057682569589</v>
       </c>
       <c r="Q8">
-        <v>0.6907450241509289</v>
+        <v>0.6643782804120353</v>
       </c>
       <c r="R8">
-        <v>0.8052114299237562</v>
+        <v>0.7708939099707812</v>
       </c>
       <c r="S8">
-        <v>0.818957863258549</v>
+        <v>0.7907680472169933</v>
       </c>
       <c r="T8">
-        <v>0.818957863258549</v>
+        <v>0.7977649046571248</v>
       </c>
       <c r="U8">
-        <v>0.818957863258549</v>
+        <v>0.7977649046571248</v>
       </c>
       <c r="V8">
-        <v>0.818957863258549</v>
+        <v>0.7977649046571248</v>
       </c>
       <c r="W8">
-        <v>0.8401832465129646</v>
+        <v>0.8240725959073898</v>
       </c>
       <c r="X8">
-        <v>0.8401832465129646</v>
+        <v>0.8240725959073898</v>
       </c>
       <c r="Y8">
-        <v>0.8508025436725639</v>
+        <v>0.8412567031791599</v>
       </c>
       <c r="Z8">
-        <v>0.8800557861641062</v>
+        <v>0.8744701320655976</v>
       </c>
       <c r="AA8">
-        <v>0.9901425225122967</v>
+        <v>0.9772182755379116</v>
       </c>
       <c r="AB8">
-        <v>0.9901425225122967</v>
+        <v>0.9772182755379116</v>
       </c>
       <c r="AC8">
-        <v>0.9999999999999997</v>
+        <v>0.9937470490993121</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999997</v>
+        <v>0.9937470490993121</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999997</v>
+        <v>0.9959181015742364</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999997</v>
+        <v>0.9959181015742364</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999997</v>
+        <v>0.9959181015742364</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999997</v>
+        <v>0.9984951134067116</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,106 +2742,106 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2071925908274842</v>
+        <v>0.1788186158131467</v>
       </c>
       <c r="E9">
-        <v>0.2221376155017555</v>
+        <v>0.2009172239061048</v>
       </c>
       <c r="F9">
-        <v>0.3292029538901989</v>
+        <v>0.2981122119707371</v>
       </c>
       <c r="G9">
-        <v>0.3897961911429437</v>
+        <v>0.3574231935197511</v>
       </c>
       <c r="H9">
-        <v>0.3897961911429437</v>
+        <v>0.3574231935197511</v>
       </c>
       <c r="I9">
-        <v>0.3897961911429437</v>
+        <v>0.3609082834453718</v>
       </c>
       <c r="J9">
-        <v>0.3897961911429437</v>
+        <v>0.3609082834453718</v>
       </c>
       <c r="K9">
-        <v>0.3931107002446219</v>
+        <v>0.37352570783963</v>
       </c>
       <c r="L9">
-        <v>0.3931107002446219</v>
+        <v>0.37352570783963</v>
       </c>
       <c r="M9">
-        <v>0.6059226720969892</v>
+        <v>0.5569252369783608</v>
       </c>
       <c r="N9">
-        <v>0.6458096940365256</v>
+        <v>0.5993565342292873</v>
       </c>
       <c r="O9">
-        <v>0.6458096940365256</v>
+        <v>0.6014800805493975</v>
       </c>
       <c r="P9">
-        <v>0.7234203748622993</v>
+        <v>0.6746636636689173</v>
       </c>
       <c r="Q9">
-        <v>0.738200833369418</v>
+        <v>0.696628117600641</v>
       </c>
       <c r="R9">
-        <v>0.7745074350261217</v>
+        <v>0.7361406601146683</v>
       </c>
       <c r="S9">
-        <v>0.8016123544150157</v>
+        <v>0.7681520012095806</v>
       </c>
       <c r="T9">
-        <v>0.8016123544150157</v>
+        <v>0.7740884220490512</v>
       </c>
       <c r="U9">
-        <v>0.8016123544150157</v>
+        <v>0.7773644404601245</v>
       </c>
       <c r="V9">
-        <v>0.8016123544150157</v>
+        <v>0.7781912075463082</v>
       </c>
       <c r="W9">
-        <v>0.8264989821225853</v>
+        <v>0.8083941996650587</v>
       </c>
       <c r="X9">
-        <v>0.8264989821225853</v>
+        <v>0.8143803793816289</v>
       </c>
       <c r="Y9">
-        <v>0.8486040203008001</v>
+        <v>0.8423158227285656</v>
       </c>
       <c r="Z9">
-        <v>0.8618727680018508</v>
+        <v>0.8630479316483953</v>
       </c>
       <c r="AA9">
-        <v>0.9824338243010975</v>
+        <v>0.9712446143377855</v>
       </c>
       <c r="AB9">
-        <v>0.9824338243010975</v>
+        <v>0.9720392539249739</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.996274621494453</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9976531584458801</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9977454335354702</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9977454335354702</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9977454335354702</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.999386828869286</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,97 +2855,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2583300996009282</v>
+        <v>0.2126274514699924</v>
       </c>
       <c r="E10">
-        <v>0.2676630688791362</v>
+        <v>0.2295675623784894</v>
       </c>
       <c r="F10">
-        <v>0.3604130625945977</v>
+        <v>0.3120652789048611</v>
       </c>
       <c r="G10">
-        <v>0.4111089868167345</v>
+        <v>0.3615126184719842</v>
       </c>
       <c r="H10">
-        <v>0.4111089868167345</v>
+        <v>0.3615126184719842</v>
       </c>
       <c r="I10">
-        <v>0.4111089868167345</v>
+        <v>0.3615126184719842</v>
       </c>
       <c r="J10">
-        <v>0.4111089868167345</v>
+        <v>0.3615126184719842</v>
       </c>
       <c r="K10">
-        <v>0.4287431310614344</v>
+        <v>0.3849766393172065</v>
       </c>
       <c r="L10">
-        <v>0.4287431310614344</v>
+        <v>0.3898726067059671</v>
       </c>
       <c r="M10">
-        <v>0.5841347213984592</v>
+        <v>0.5216004787586781</v>
       </c>
       <c r="N10">
-        <v>0.5935545263806447</v>
+        <v>0.5386088340198515</v>
       </c>
       <c r="O10">
-        <v>0.5935545263806447</v>
+        <v>0.5386088340198515</v>
       </c>
       <c r="P10">
-        <v>0.6723850296060208</v>
+        <v>0.6101671952514633</v>
       </c>
       <c r="Q10">
-        <v>0.6850287130183058</v>
+        <v>0.629709202990728</v>
       </c>
       <c r="R10">
-        <v>0.8532594576401847</v>
+        <v>0.771527391963178</v>
       </c>
       <c r="S10">
-        <v>0.9101475980958628</v>
+        <v>0.8258412065991217</v>
       </c>
       <c r="T10">
-        <v>0.9108475756623569</v>
+        <v>0.8359966321300598</v>
       </c>
       <c r="U10">
-        <v>0.9108475756623569</v>
+        <v>0.8359966321300598</v>
       </c>
       <c r="V10">
-        <v>0.9108475756623569</v>
+        <v>0.8390416159168157</v>
       </c>
       <c r="W10">
-        <v>0.9117986783509143</v>
+        <v>0.8493944011812617</v>
       </c>
       <c r="X10">
-        <v>0.9117986783509143</v>
+        <v>0.8525296776264003</v>
       </c>
       <c r="Y10">
-        <v>0.9126847093116869</v>
+        <v>0.8628313228903995</v>
       </c>
       <c r="Z10">
-        <v>0.9126847093116869</v>
+        <v>0.8709044463723933</v>
       </c>
       <c r="AA10">
-        <v>0.980565747258669</v>
+        <v>0.9338576010374785</v>
       </c>
       <c r="AB10">
-        <v>0.980565747258669</v>
+        <v>0.9341484008709533</v>
       </c>
       <c r="AC10">
-        <v>0.9879969284542425</v>
+        <v>0.949593892738179</v>
       </c>
       <c r="AD10">
-        <v>0.9879969284542425</v>
+        <v>0.9523216428020027</v>
       </c>
       <c r="AE10">
-        <v>0.9967960879277293</v>
+        <v>0.9688422315219664</v>
       </c>
       <c r="AF10">
-        <v>0.9984937718306215</v>
+        <v>0.9797817564494639</v>
       </c>
       <c r="AG10">
-        <v>0.9984937718306215</v>
+        <v>0.980279405216868</v>
       </c>
       <c r="AH10">
-        <v>0.9984937718306215</v>
+        <v>0.9892109405147265</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2968,97 +2968,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2517886641541192</v>
+        <v>0.2175140595559246</v>
       </c>
       <c r="E11">
-        <v>0.2646695336365719</v>
+        <v>0.2365971310191336</v>
       </c>
       <c r="F11">
-        <v>0.374231855176137</v>
+        <v>0.3359814588239237</v>
       </c>
       <c r="G11">
-        <v>0.4407119475635512</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="H11">
-        <v>0.4407119475635512</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="I11">
-        <v>0.4407119475635512</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="J11">
-        <v>0.4407119475635512</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="K11">
-        <v>0.463663505245644</v>
+        <v>0.4270302772177729</v>
       </c>
       <c r="L11">
-        <v>0.46645137597607</v>
+        <v>0.4377303500520102</v>
       </c>
       <c r="M11">
-        <v>0.6201606757897563</v>
+        <v>0.5737820814142299</v>
       </c>
       <c r="N11">
-        <v>0.635776052773835</v>
+        <v>0.5951363681228029</v>
       </c>
       <c r="O11">
-        <v>0.635776052773835</v>
+        <v>0.5951363681228029</v>
       </c>
       <c r="P11">
-        <v>0.7131795171324115</v>
+        <v>0.667810333399966</v>
       </c>
       <c r="Q11">
-        <v>0.7463331231460367</v>
+        <v>0.7037314454417687</v>
       </c>
       <c r="R11">
-        <v>0.8683457433986079</v>
+        <v>0.8134566877364628</v>
       </c>
       <c r="S11">
-        <v>0.9227325592219626</v>
+        <v>0.8670135860392997</v>
       </c>
       <c r="T11">
-        <v>0.9319058520459544</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="U11">
-        <v>0.9319058520459544</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="V11">
-        <v>0.9319058520459544</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="W11">
-        <v>0.9319058520459544</v>
+        <v>0.8871676451144873</v>
       </c>
       <c r="X11">
-        <v>0.9319058520459544</v>
+        <v>0.8886726921735698</v>
       </c>
       <c r="Y11">
-        <v>0.9354008500033724</v>
+        <v>0.8999600876380801</v>
       </c>
       <c r="Z11">
-        <v>0.9354008500033724</v>
+        <v>0.9024551995158816</v>
       </c>
       <c r="AA11">
-        <v>0.9975898334406232</v>
+        <v>0.9624923879700636</v>
       </c>
       <c r="AB11">
-        <v>0.9975898334406232</v>
+        <v>0.9665700044959842</v>
       </c>
       <c r="AC11">
-        <v>0.9986448050137983</v>
+        <v>0.97583077354982</v>
       </c>
       <c r="AD11">
-        <v>0.9986448050137983</v>
+        <v>0.9769333821315077</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9864435094307591</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9893124529823869</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9893124529823869</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9959477408310439</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6302548612520517</v>
+        <v>0.5887612042343665</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5643644035494009</v>
+        <v>0.7227072555994847</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5747840530482897</v>
+        <v>0.5839813658846271</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5344809922170457</v>
+        <v>0.6347917510987787</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3299,16 +3299,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.541384888766529</v>
+        <v>0.5707496130555727</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -3340,16 +3340,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5826727986511137</v>
+        <v>0.5886857991974532</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5980190842998239</v>
+        <v>0.5640425974657222</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6059226720969892</v>
+        <v>0.5569252369783608</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5841347213984592</v>
+        <v>0.5216004787586781</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6201606757897563</v>
+        <v>0.5737820814142299</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -3599,16 +3599,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7552476436164675</v>
+      </c>
+      <c r="G2">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7176299835119724</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -3640,16 +3640,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7151556571962822</v>
+        <v>0.7227072555994847</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7055045242959332</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3722,16 +3722,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7706968936328267</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8217139100174641</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -3804,16 +3804,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7713107185871939</v>
+        <v>0.8421307078035669</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8052114299237562</v>
+        <v>0.7708939099707812</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3886,16 +3886,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7234203748622993</v>
+        <v>0.7361406601146683</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>28</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8532594576401847</v>
+        <v>0.771527391963178</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -3968,16 +3968,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.7037314454417687</v>
+      </c>
+      <c r="G11">
         <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7131795171324115</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
       </c>
       <c r="H11">
         <v>28</v>
@@ -4063,16 +4063,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8072491810088468</v>
+        <v>0.8224500741941057</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -4104,16 +4104,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8244844336096276</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8201613266801981</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -4186,16 +4186,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8270523783622279</v>
+        <v>0.8271176277564612</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8217139100174641</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -4268,16 +4268,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8288558767756973</v>
+        <v>0.8421307078035669</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4309,16 +4309,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8052114299237562</v>
+        <v>0.8240725959073898</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>28</v>
@@ -4350,16 +4350,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8016123544150157</v>
+        <v>0.8083941996650587</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>28</v>
@@ -4391,16 +4391,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8258412065991217</v>
+      </c>
+      <c r="G10">
         <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8532594576401847</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
       </c>
       <c r="H10">
         <v>28</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8683457433986079</v>
+        <v>0.8134566877364628</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4527,16 +4527,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9152532003953405</v>
+        <v>0.9064027753250747</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -4568,16 +4568,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9117097464081362</v>
+        <v>0.9048433707681228</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9412862438581445</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -4650,16 +4650,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.908376800553647</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9651392705172921</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4732,16 +4732,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9154566732859569</v>
+        <v>0.9161984012006602</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9901425225122967</v>
+        <v>0.9772182755379116</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9824338243010975</v>
+        <v>0.9712446143377855</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -4855,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9101475980958628</v>
+        <v>0.9338576010374785</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>28</v>
@@ -4896,16 +4896,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9227325592219626</v>
+        <v>0.9024551995158816</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>28</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -565,15 +568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,10 +686,13 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -695,29 +701,29 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.05297038464616081</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1356762298869252</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1994750483853086</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2006395413159719</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.007318663073265654</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.04400348784835137</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.02410957867706498</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -725,29 +731,29 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.02751691816342766</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.06353779161999124</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.0290398634109632</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.03816256716667495</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.0708673086435348</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.000274576494853592</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -755,51 +761,54 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0.002738795501720588</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>0.01007202049086012</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.04291806153536796</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.001637287706416448</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.04024271955301729</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.007363811180126733</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>0.00143534469999695</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -814,105 +823,108 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3836777703248824</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2474611676878563</v>
       </c>
       <c r="H3">
-        <v>0.3390294852746024</v>
+        <v>0.01237602871349463</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2223092996063118</v>
       </c>
       <c r="J3">
-        <v>0.02775523124625909</v>
+        <v>0.01775774759867536</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.04695813067148273</v>
       </c>
       <c r="L3">
-        <v>0.05937294303220547</v>
+        <v>0.0005408685515407208</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06476944223663836</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03132268321605371</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00646745296913288</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0003769612526911418</v>
       </c>
       <c r="Q3">
-        <v>0.09500794089017352</v>
+        <v>0.02274607762271965</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.08484382503096947</v>
       </c>
       <c r="S3">
-        <v>0.03339421420575456</v>
+        <v>0.008018501452995428</v>
       </c>
       <c r="T3">
-        <v>0.0149539140430099</v>
+        <v>0.05013475784432009</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0397467217404669</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.005006751874410212</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0005641057665442489</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000911998881169379</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>6.201570205263743E-09</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0001254267761158035</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.006628410673085011</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.00099302023579558</v>
       </c>
       <c r="AC3">
-        <v>0.01018750739529834</v>
+        <v>1.995794444105633E-06</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.03706164590628353</v>
       </c>
       <c r="AE3">
-        <v>0.03662099358781446</v>
+        <v>0.01172051194033225</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.05195251029000578</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.005392297505297918</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002140149715046931</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.006430932627577705</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.008703082424361875</v>
       </c>
       <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>0.005598176716343068</v>
+      </c>
+      <c r="AL3">
+        <v>0.0009393104762670945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -924,52 +936,52 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.2777137229045041</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.1774583878446083</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.03238789157352606</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.007075103081405495</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.08934626048058314</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08934626048058313</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0.1332542733342242</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.03451075936593603</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.07874826889973113</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
-        <v>0.1200120431101582</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.1200120431101583</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -987,26 +999,26 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001572664224808762</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.001572664224808765</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.02935643246147893</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.02935643246147892</v>
       </c>
       <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>0.01856419271903557</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
         <v>0</v>
       </c>
@@ -1022,10 +1034,13 @@
       <c r="AK4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1037,28 +1052,28 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1301141207654352</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.02220605487709263</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.2993243146660582</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1831472607901927</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0.03346136526426405</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04408908002606689</v>
+        <v>0.03346136526426404</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04408908002606688</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1070,20 +1085,20 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>0.1147754313673516</v>
       </c>
-      <c r="Q5">
-        <v>0.04841708252249372</v>
-      </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.04841708252249371</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0.07013802082422903</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
@@ -1109,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04832344834140326</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.04832344834140325</v>
       </c>
       <c r="AE5">
-        <v>0.006003820555412632</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.00600382055541263</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1135,10 +1150,13 @@
       <c r="AK5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1150,35 +1168,35 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3646139365389375</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.2061356765166351</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.02432872310287647</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.01114526996469504</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0.06193224551067783</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -1186,17 +1204,17 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.1553582875855918</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0.1764858607805863</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -1248,10 +1266,13 @@
       <c r="AK6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1263,108 +1284,111 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4431557311930721</v>
+        <v>0.006086388772193516</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1807590189708088</v>
       </c>
       <c r="G7">
-        <v>0.1455300680043812</v>
+        <v>0.01229901998184699</v>
       </c>
       <c r="H7">
-        <v>0.03272311780420604</v>
+        <v>0.09727601004149847</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.06563403558958793</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.534810265406273E-06</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.01389591376997547</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.2068258770319322</v>
+        <v>0.06035306745779363</v>
       </c>
       <c r="O7">
-        <v>0.008710618960301642</v>
+        <v>0.1144692806672648</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.05889860950460744</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.06535707443679159</v>
+        <v>0.04862557860503124</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.07478775191824215</v>
       </c>
       <c r="T7">
-        <v>0.08380159879933981</v>
+        <v>0.05645530984875197</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.07996137967452632</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.02509763475740262</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.003525374086606324</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.002862815232239838</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.00295761602403733</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.009471138813788058</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.006698082210851867</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.001519476842641334</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.05460789975413955</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.01513607540268166</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.01315875605499294</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.002379071068140016</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.001121013048178207</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.004724537916264951</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.169674670060058E-07</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.00113220597814956</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1373,111 +1397,114 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1543911917533435</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.04102669884218635</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.08727672018643186</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.03360953575887485</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.001318731795652535</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0.02438371834142813</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0.2220360007878049</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.008685998009897963</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0.08717717278133869</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.004472512155076398</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.1065156295587459</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.01987413724621212</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.006996857440131413</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>0.02630769125026503</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0.01718410727177015</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.03321342888643774</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.102748143472314</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>0.01652877356140047</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.002171052474924364</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>0.002577011832475159</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.001504886593288575</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1486,111 +1513,114 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1788186158131467</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.02209860809295809</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.09719498806463224</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.05931098154901403</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0.003485089925620689</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.01261742439425821</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>0.1833995291387309</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.04243129725092648</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.002123546320110294</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.07318358311951975</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.02196445393172372</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.03951254251402727</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.03201134109491233</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.005936420839470588</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.003276018411073404</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.0008267670861836623</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.03020299211875048</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.00598617971657023</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.02793544334693678</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.02073210891982968</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.1081966826893902</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.0007946395871883999</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.02423536756947906</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.001378536951427091</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>9.227508959011932E-05</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0.00164139533381585</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.0006131711307135677</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1599,20 +1629,20 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2126274514699924</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.01694011090849707</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.08249771652637171</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.04944733956712312</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -1620,90 +1650,93 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.02346402084522233</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.004895967388760553</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.1317278720527109</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.01700835526117341</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0.07155836123161188</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.01954200773926466</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.14181818897245</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.05431381463594378</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.01015542553093807</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0.003044983786755931</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.01035278526444609</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.003135276445138575</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.01030164526399925</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.00807312348199375</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.06295315466508522</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.0002907998334747957</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.01544549186722567</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.002727750063823698</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.01652058871996369</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.01093952492749753</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.0004976487674041297</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>0.008931535297858503</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.01078905948527357</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1712,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2175140595559246</v>
+        <v>0.0004824025357074936</v>
       </c>
       <c r="E11">
-        <v>0.019083071463209</v>
+        <v>0.2182937129217554</v>
       </c>
       <c r="F11">
-        <v>0.0993843278047901</v>
+        <v>0.01915147247106594</v>
       </c>
       <c r="G11">
-        <v>0.06360127890240132</v>
+        <v>0.09974055914837328</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06382925014834578</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1733,84 +1766,87 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02744753949144789</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01070007283423736</v>
+        <v>0.02754592194356142</v>
       </c>
       <c r="M11">
-        <v>0.1360517313622197</v>
+        <v>0.01073842597709571</v>
       </c>
       <c r="N11">
-        <v>0.02135428670857296</v>
+        <v>0.1365393926678853</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.02143082861828328</v>
       </c>
       <c r="P11">
-        <v>0.07267396527716311</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03592111204180266</v>
+        <v>0.07293445649208637</v>
       </c>
       <c r="R11">
-        <v>0.1097252422946942</v>
+        <v>0.03604986701040081</v>
       </c>
       <c r="S11">
-        <v>0.05355689830283687</v>
+        <v>0.1101185394206194</v>
       </c>
       <c r="T11">
-        <v>0.01600364870607804</v>
+        <v>0.05374886665702287</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.01606101188804771</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.004150410369109583</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.001505047059082474</v>
+        <v>0.004165287023154208</v>
       </c>
       <c r="Y11">
-        <v>0.01128739546451026</v>
+        <v>0.001510441721881482</v>
       </c>
       <c r="Z11">
-        <v>0.002495111877801517</v>
+        <v>0.01132785379572497</v>
       </c>
       <c r="AA11">
-        <v>0.06003718845418209</v>
+        <v>0.00250405531059673</v>
       </c>
       <c r="AB11">
-        <v>0.004077616525920535</v>
+        <v>0.06025238464034535</v>
       </c>
       <c r="AC11">
-        <v>0.009260769053835754</v>
+        <v>0.00409223225906207</v>
       </c>
       <c r="AD11">
-        <v>0.001102608581687768</v>
+        <v>0.009293963182885369</v>
       </c>
       <c r="AE11">
-        <v>0.009510127299251435</v>
+        <v>0.001106560751463192</v>
       </c>
       <c r="AF11">
-        <v>0.002868943551627778</v>
+        <v>0.009544215223376793</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.002879226939749777</v>
       </c>
       <c r="AH11">
-        <v>0.006635287848656949</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.004052259168956086</v>
+        <v>0.006659071251509266</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>0</v>
       </c>
     </row>
@@ -1821,15 +1857,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1939,10 +1975,13 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1951,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.05297038464616081</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.188646614533086</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3881216629183946</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5887612042343665</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.5960798673076322</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.6400833551559836</v>
-      </c>
-      <c r="J2">
-        <v>0.6641929338330486</v>
       </c>
       <c r="K2">
         <v>0.6641929338330486</v>
@@ -1981,25 +2020,25 @@
         <v>0.6641929338330486</v>
       </c>
       <c r="N2">
+        <v>0.6641929338330486</v>
+      </c>
+      <c r="O2">
         <v>0.6917098519964762</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.7552476436164675</v>
-      </c>
-      <c r="P2">
-        <v>0.7842875070274307</v>
       </c>
       <c r="Q2">
         <v>0.7842875070274307</v>
       </c>
       <c r="R2">
+        <v>0.7842875070274307</v>
+      </c>
+      <c r="S2">
         <v>0.8224500741941057</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.8933173828376404</v>
-      </c>
-      <c r="T2">
-        <v>0.893591959332494</v>
       </c>
       <c r="U2">
         <v>0.893591959332494</v>
@@ -2011,7 +2050,7 @@
         <v>0.893591959332494</v>
       </c>
       <c r="X2">
-        <v>0.8963307548342146</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="Y2">
         <v>0.8963307548342146</v>
@@ -2020,16 +2059,16 @@
         <v>0.8963307548342146</v>
       </c>
       <c r="AA2">
+        <v>0.8963307548342146</v>
+      </c>
+      <c r="AB2">
         <v>0.9064027753250747</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.9493208368604427</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.9509581245668591</v>
-      </c>
-      <c r="AD2">
-        <v>0.9912008441198764</v>
       </c>
       <c r="AE2">
         <v>0.9912008441198764</v>
@@ -2038,13 +2077,13 @@
         <v>0.9912008441198764</v>
       </c>
       <c r="AG2">
-        <v>0.9985646553000032</v>
+        <v>0.9912008441198764</v>
       </c>
       <c r="AH2">
         <v>0.9985646553000032</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9985646553000032</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -2052,10 +2091,13 @@
       <c r="AK2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2070,105 +2112,108 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3836777703248824</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3836777703248824</v>
+        <v>0.2474611676878563</v>
       </c>
       <c r="H3">
-        <v>0.7227072555994847</v>
+        <v>0.2598371964013509</v>
       </c>
       <c r="I3">
-        <v>0.7227072555994847</v>
+        <v>0.4821464960076628</v>
       </c>
       <c r="J3">
-        <v>0.7504624868457438</v>
+        <v>0.4999042436063382</v>
       </c>
       <c r="K3">
-        <v>0.7504624868457438</v>
+        <v>0.5468623742778209</v>
       </c>
       <c r="L3">
-        <v>0.8098354298779493</v>
+        <v>0.5474032428293616</v>
       </c>
       <c r="M3">
-        <v>0.8098354298779493</v>
+        <v>0.612172685066</v>
       </c>
       <c r="N3">
-        <v>0.8098354298779493</v>
+        <v>0.6434953682820537</v>
       </c>
       <c r="O3">
-        <v>0.8098354298779493</v>
+        <v>0.6499628212511865</v>
       </c>
       <c r="P3">
-        <v>0.8098354298779493</v>
+        <v>0.6503397825038777</v>
       </c>
       <c r="Q3">
-        <v>0.9048433707681228</v>
+        <v>0.6730858601265973</v>
       </c>
       <c r="R3">
-        <v>0.9048433707681228</v>
+        <v>0.7579296851575668</v>
       </c>
       <c r="S3">
-        <v>0.9382375849738774</v>
+        <v>0.7659481866105622</v>
       </c>
       <c r="T3">
-        <v>0.9531914990168874</v>
+        <v>0.8160829444548823</v>
       </c>
       <c r="U3">
-        <v>0.9531914990168874</v>
+        <v>0.8558296661953492</v>
       </c>
       <c r="V3">
-        <v>0.9531914990168874</v>
+        <v>0.8608364180697594</v>
       </c>
       <c r="W3">
-        <v>0.9531914990168874</v>
+        <v>0.8614005238363036</v>
       </c>
       <c r="X3">
-        <v>0.9531914990168874</v>
+        <v>0.8623125227174729</v>
       </c>
       <c r="Y3">
-        <v>0.9531914990168874</v>
+        <v>0.8623125289190432</v>
       </c>
       <c r="Z3">
-        <v>0.9531914990168874</v>
+        <v>0.862437955695159</v>
       </c>
       <c r="AA3">
-        <v>0.9531914990168874</v>
+        <v>0.8690663663682441</v>
       </c>
       <c r="AB3">
-        <v>0.9531914990168874</v>
+        <v>0.8700593866040397</v>
       </c>
       <c r="AC3">
-        <v>0.9633790064121858</v>
+        <v>0.8700613823984839</v>
       </c>
       <c r="AD3">
-        <v>0.9633790064121858</v>
+        <v>0.9071230283047674</v>
       </c>
       <c r="AE3">
+        <v>0.9188435402450996</v>
+      </c>
+      <c r="AF3">
+        <v>0.9707960505351054</v>
+      </c>
+      <c r="AG3">
+        <v>0.9761883480404033</v>
+      </c>
+      <c r="AH3">
+        <v>0.9783284977554503</v>
+      </c>
+      <c r="AI3">
+        <v>0.9847594303830279</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9934625128073898</v>
+      </c>
+      <c r="AK3">
+        <v>0.9990606895237329</v>
+      </c>
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2180,108 +2225,111 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2777137229045041</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0.2777137229045041</v>
       </c>
       <c r="G4">
-        <v>0.4551721107491124</v>
+        <v>0.2777137229045041</v>
       </c>
       <c r="H4">
+        <v>0.4551721107491125</v>
+      </c>
+      <c r="I4">
         <v>0.4875600023226385</v>
-      </c>
-      <c r="I4">
-        <v>0.494635105404044</v>
       </c>
       <c r="J4">
         <v>0.494635105404044</v>
       </c>
       <c r="K4">
-        <v>0.5839813658846271</v>
+        <v>0.494635105404044</v>
       </c>
       <c r="L4">
         <v>0.5839813658846271</v>
       </c>
       <c r="M4">
-        <v>0.7172356392188513</v>
+        <v>0.5839813658846271</v>
       </c>
       <c r="N4">
-        <v>0.7172356392188513</v>
+        <v>0.7172356392188514</v>
       </c>
       <c r="O4">
-        <v>0.7172356392188513</v>
+        <v>0.7172356392188514</v>
       </c>
       <c r="P4">
-        <v>0.7517463985847873</v>
+        <v>0.7172356392188514</v>
       </c>
       <c r="Q4">
-        <v>0.8304946674845184</v>
+        <v>0.7517463985847874</v>
       </c>
       <c r="R4">
-        <v>0.8304946674845184</v>
+        <v>0.8304946674845186</v>
       </c>
       <c r="S4">
-        <v>0.9505067105946766</v>
+        <v>0.8304946674845186</v>
       </c>
       <c r="T4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="U4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="V4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="W4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="X4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="Y4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="Z4">
-        <v>0.9520793748194853</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="AA4">
-        <v>0.9520793748194853</v>
+        <v>0.9520793748194856</v>
       </c>
       <c r="AB4">
-        <v>0.9520793748194853</v>
+        <v>0.9520793748194856</v>
       </c>
       <c r="AC4">
-        <v>0.9814358072809642</v>
+        <v>0.9520793748194856</v>
       </c>
       <c r="AD4">
-        <v>0.9814358072809642</v>
+        <v>0.9814358072809645</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>0.9814358072809645</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2293,25 +2341,25 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1301141207654352</v>
       </c>
-      <c r="F5">
-        <v>0.1523201756425279</v>
-      </c>
       <c r="G5">
-        <v>0.4516444903085861</v>
+        <v>0.1523201756425278</v>
       </c>
       <c r="H5">
-        <v>0.6347917510987787</v>
+        <v>0.451644490308586</v>
       </c>
       <c r="I5">
         <v>0.6347917510987787</v>
       </c>
       <c r="J5">
+        <v>0.6347917510987787</v>
+      </c>
+      <c r="K5">
         <v>0.6682531163630427</v>
-      </c>
-      <c r="K5">
-        <v>0.7123421963891097</v>
       </c>
       <c r="L5">
         <v>0.7123421963891097</v>
@@ -2326,75 +2374,78 @@
         <v>0.7123421963891097</v>
       </c>
       <c r="P5">
+        <v>0.7123421963891097</v>
+      </c>
+      <c r="Q5">
         <v>0.8271176277564612</v>
       </c>
-      <c r="Q5">
-        <v>0.875534710278955</v>
-      </c>
       <c r="R5">
-        <v>0.875534710278955</v>
+        <v>0.8755347102789549</v>
       </c>
       <c r="S5">
-        <v>0.9456727311031841</v>
+        <v>0.8755347102789549</v>
       </c>
       <c r="T5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="U5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="V5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="W5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="X5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="Y5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="Z5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="AA5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="AB5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="AC5">
-        <v>0.9939961794445873</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="AD5">
-        <v>0.9939961794445873</v>
+        <v>0.9939961794445872</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.9939961794445872</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2406,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3646139365389375</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0.3646139365389375</v>
       </c>
       <c r="G6">
+        <v>0.3646139365389375</v>
+      </c>
+      <c r="H6">
         <v>0.5707496130555727</v>
-      </c>
-      <c r="H6">
-        <v>0.5950783361584492</v>
       </c>
       <c r="I6">
         <v>0.5950783361584492</v>
@@ -2424,13 +2475,13 @@
         <v>0.5950783361584492</v>
       </c>
       <c r="K6">
-        <v>0.6062236061231442</v>
+        <v>0.5950783361584492</v>
       </c>
       <c r="L6">
         <v>0.6062236061231442</v>
       </c>
       <c r="M6">
-        <v>0.668155851633822</v>
+        <v>0.6062236061231442</v>
       </c>
       <c r="N6">
         <v>0.668155851633822</v>
@@ -2442,13 +2493,13 @@
         <v>0.668155851633822</v>
       </c>
       <c r="Q6">
-        <v>0.8235141392194137</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="R6">
         <v>0.8235141392194137</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2504,10 +2555,13 @@
       <c r="AK6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2519,97 +2573,97 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4431557311930721</v>
+        <v>0.006086388772193516</v>
       </c>
       <c r="F7">
-        <v>0.4431557311930721</v>
+        <v>0.1868454077430023</v>
       </c>
       <c r="G7">
-        <v>0.5886857991974532</v>
+        <v>0.1991444277248493</v>
       </c>
       <c r="H7">
-        <v>0.6214089170016592</v>
+        <v>0.2964204377663477</v>
       </c>
       <c r="I7">
-        <v>0.6214089170016592</v>
+        <v>0.3620544733559357</v>
       </c>
       <c r="J7">
-        <v>0.6214089170016592</v>
+        <v>0.3620544733559357</v>
       </c>
       <c r="K7">
-        <v>0.6214089170016592</v>
+        <v>0.3620570081662011</v>
       </c>
       <c r="L7">
-        <v>0.6214089170016592</v>
+        <v>0.3620570081662011</v>
       </c>
       <c r="M7">
-        <v>0.6353048307716347</v>
+        <v>0.3620570081662011</v>
       </c>
       <c r="N7">
-        <v>0.8421307078035669</v>
+        <v>0.4224100756239947</v>
       </c>
       <c r="O7">
-        <v>0.8508413267638686</v>
+        <v>0.5368793562912595</v>
       </c>
       <c r="P7">
-        <v>0.8508413267638686</v>
+        <v>0.5957779657958669</v>
       </c>
       <c r="Q7">
-        <v>0.8508413267638686</v>
+        <v>0.5957779657958669</v>
       </c>
       <c r="R7">
-        <v>0.9161984012006602</v>
+        <v>0.6444035444008982</v>
       </c>
       <c r="S7">
-        <v>0.9161984012006602</v>
+        <v>0.7191912963191404</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.7756466061678924</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.8556079858424187</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.8807056205998214</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.8842309946864277</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.8870938099186676</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.8900514259427049</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.8995225647564929</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.9062206469673448</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.9077401238099861</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9623480235641257</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9774840989668074</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9906428550218004</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9930219260899404</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9941429391381187</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9988674770543836</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9988677940218507</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2617,10 +2671,13 @@
       <c r="AK7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2629,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1543911917533435</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1954178905955299</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2826946107819617</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.3163041465408366</v>
-      </c>
-      <c r="H8">
-        <v>0.3176228783364892</v>
       </c>
       <c r="I8">
         <v>0.3176228783364892</v>
@@ -2650,34 +2707,34 @@
         <v>0.3176228783364892</v>
       </c>
       <c r="K8">
-        <v>0.3420065966779173</v>
+        <v>0.3176228783364892</v>
       </c>
       <c r="L8">
         <v>0.3420065966779173</v>
       </c>
       <c r="M8">
+        <v>0.3420065966779173</v>
+      </c>
+      <c r="N8">
         <v>0.5640425974657222</v>
-      </c>
-      <c r="N8">
-        <v>0.5727285954756202</v>
       </c>
       <c r="O8">
         <v>0.5727285954756202</v>
       </c>
       <c r="P8">
+        <v>0.5727285954756202</v>
+      </c>
+      <c r="Q8">
         <v>0.6599057682569589</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.6643782804120353</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.7708939099707812</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.7907680472169933</v>
-      </c>
-      <c r="T8">
-        <v>0.7977649046571248</v>
       </c>
       <c r="U8">
         <v>0.7977649046571248</v>
@@ -2686,31 +2743,31 @@
         <v>0.7977649046571248</v>
       </c>
       <c r="W8">
-        <v>0.8240725959073898</v>
+        <v>0.7977649046571248</v>
       </c>
       <c r="X8">
         <v>0.8240725959073898</v>
       </c>
       <c r="Y8">
+        <v>0.8240725959073898</v>
+      </c>
+      <c r="Z8">
         <v>0.8412567031791599</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.8744701320655976</v>
-      </c>
-      <c r="AA8">
-        <v>0.9772182755379116</v>
       </c>
       <c r="AB8">
         <v>0.9772182755379116</v>
       </c>
       <c r="AC8">
-        <v>0.9937470490993121</v>
+        <v>0.9772182755379116</v>
       </c>
       <c r="AD8">
         <v>0.9937470490993121</v>
       </c>
       <c r="AE8">
-        <v>0.9959181015742364</v>
+        <v>0.9937470490993121</v>
       </c>
       <c r="AF8">
         <v>0.9959181015742364</v>
@@ -2719,10 +2776,10 @@
         <v>0.9959181015742364</v>
       </c>
       <c r="AH8">
+        <v>0.9959181015742364</v>
+      </c>
+      <c r="AI8">
         <v>0.9984951134067116</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2730,10 +2787,13 @@
       <c r="AK8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2742,88 +2802,88 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1788186158131467</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2009172239061048</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2981122119707371</v>
-      </c>
-      <c r="G9">
-        <v>0.3574231935197511</v>
       </c>
       <c r="H9">
         <v>0.3574231935197511</v>
       </c>
       <c r="I9">
-        <v>0.3609082834453718</v>
+        <v>0.3574231935197511</v>
       </c>
       <c r="J9">
         <v>0.3609082834453718</v>
       </c>
       <c r="K9">
-        <v>0.37352570783963</v>
+        <v>0.3609082834453718</v>
       </c>
       <c r="L9">
         <v>0.37352570783963</v>
       </c>
       <c r="M9">
+        <v>0.37352570783963</v>
+      </c>
+      <c r="N9">
         <v>0.5569252369783608</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.5993565342292873</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.6014800805493975</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.6746636636689173</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.696628117600641</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.7361406601146683</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.7681520012095806</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.7740884220490512</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.7773644404601245</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.7781912075463082</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.8083941996650587</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.8143803793816289</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.8423158227285656</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.8630479316483953</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.9712446143377855</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.9720392539249739</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.996274621494453</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.9976531584458801</v>
-      </c>
-      <c r="AE9">
-        <v>0.9977454335354702</v>
       </c>
       <c r="AF9">
         <v>0.9977454335354702</v>
@@ -2832,10 +2892,10 @@
         <v>0.9977454335354702</v>
       </c>
       <c r="AH9">
+        <v>0.9977454335354702</v>
+      </c>
+      <c r="AI9">
         <v>0.999386828869286</v>
-      </c>
-      <c r="AI9">
-        <v>0.9999999999999996</v>
       </c>
       <c r="AJ9">
         <v>0.9999999999999996</v>
@@ -2843,10 +2903,13 @@
       <c r="AK9">
         <v>0.9999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2855,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2126274514699924</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2295675623784894</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3120652789048611</v>
-      </c>
-      <c r="G10">
-        <v>0.3615126184719842</v>
       </c>
       <c r="H10">
         <v>0.3615126184719842</v>
@@ -2876,79 +2939,79 @@
         <v>0.3615126184719842</v>
       </c>
       <c r="K10">
+        <v>0.3615126184719842</v>
+      </c>
+      <c r="L10">
         <v>0.3849766393172065</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.3898726067059671</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.5216004787586781</v>
-      </c>
-      <c r="N10">
-        <v>0.5386088340198515</v>
       </c>
       <c r="O10">
         <v>0.5386088340198515</v>
       </c>
       <c r="P10">
+        <v>0.5386088340198515</v>
+      </c>
+      <c r="Q10">
         <v>0.6101671952514633</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.629709202990728</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.771527391963178</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.8258412065991217</v>
-      </c>
-      <c r="T10">
-        <v>0.8359966321300598</v>
       </c>
       <c r="U10">
         <v>0.8359966321300598</v>
       </c>
       <c r="V10">
+        <v>0.8359966321300598</v>
+      </c>
+      <c r="W10">
         <v>0.8390416159168157</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.8493944011812617</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.8525296776264003</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.8628313228903995</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.8709044463723933</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.9338576010374785</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.9341484008709533</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.949593892738179</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.9523216428020027</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.9688422315219664</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.9797817564494639</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.980279405216868</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>0.9892109405147265</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -2956,10 +3019,13 @@
       <c r="AK10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2968,106 +3034,109 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2175140595559246</v>
+        <v>0.0004824025357074936</v>
       </c>
       <c r="E11">
-        <v>0.2365971310191336</v>
+        <v>0.2187761154574629</v>
       </c>
       <c r="F11">
-        <v>0.3359814588239237</v>
+        <v>0.2379275879285288</v>
       </c>
       <c r="G11">
-        <v>0.399582737726325</v>
+        <v>0.3376681470769021</v>
       </c>
       <c r="H11">
-        <v>0.399582737726325</v>
+        <v>0.4014973972252479</v>
       </c>
       <c r="I11">
-        <v>0.399582737726325</v>
+        <v>0.4014973972252479</v>
       </c>
       <c r="J11">
-        <v>0.399582737726325</v>
+        <v>0.4014973972252479</v>
       </c>
       <c r="K11">
-        <v>0.4270302772177729</v>
+        <v>0.4014973972252479</v>
       </c>
       <c r="L11">
-        <v>0.4377303500520102</v>
+        <v>0.4290433191688093</v>
       </c>
       <c r="M11">
-        <v>0.5737820814142299</v>
+        <v>0.4397817451459051</v>
       </c>
       <c r="N11">
-        <v>0.5951363681228029</v>
+        <v>0.5763211378137904</v>
       </c>
       <c r="O11">
-        <v>0.5951363681228029</v>
+        <v>0.5977519664320736</v>
       </c>
       <c r="P11">
-        <v>0.667810333399966</v>
+        <v>0.5977519664320736</v>
       </c>
       <c r="Q11">
-        <v>0.7037314454417687</v>
+        <v>0.67068642292416</v>
       </c>
       <c r="R11">
-        <v>0.8134566877364628</v>
+        <v>0.7067362899345608</v>
       </c>
       <c r="S11">
-        <v>0.8670135860392997</v>
+        <v>0.8168548293551802</v>
       </c>
       <c r="T11">
-        <v>0.8830172347453777</v>
+        <v>0.870603696012203</v>
       </c>
       <c r="U11">
-        <v>0.8830172347453777</v>
+        <v>0.8866647079002508</v>
       </c>
       <c r="V11">
-        <v>0.8830172347453777</v>
+        <v>0.8866647079002508</v>
       </c>
       <c r="W11">
-        <v>0.8871676451144873</v>
+        <v>0.8866647079002508</v>
       </c>
       <c r="X11">
-        <v>0.8886726921735698</v>
+        <v>0.890829994923405</v>
       </c>
       <c r="Y11">
-        <v>0.8999600876380801</v>
+        <v>0.8923404366452865</v>
       </c>
       <c r="Z11">
-        <v>0.9024551995158816</v>
+        <v>0.9036682904410115</v>
       </c>
       <c r="AA11">
-        <v>0.9624923879700636</v>
+        <v>0.9061723457516082</v>
       </c>
       <c r="AB11">
-        <v>0.9665700044959842</v>
+        <v>0.9664247303919535</v>
       </c>
       <c r="AC11">
-        <v>0.97583077354982</v>
+        <v>0.9705169626510156</v>
       </c>
       <c r="AD11">
-        <v>0.9769333821315077</v>
+        <v>0.9798109258339009</v>
       </c>
       <c r="AE11">
-        <v>0.9864435094307591</v>
+        <v>0.9809174865853642</v>
       </c>
       <c r="AF11">
-        <v>0.9893124529823869</v>
+        <v>0.9904617018087409</v>
       </c>
       <c r="AG11">
-        <v>0.9893124529823869</v>
+        <v>0.9933409287484907</v>
       </c>
       <c r="AH11">
-        <v>0.9959477408310439</v>
+        <v>0.9933409287484907</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3085,57 +3154,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3153,39 +3222,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7227072555994847</v>
+        <v>0.5468623742778209</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -3194,30 +3263,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3235,30 +3304,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3276,30 +3345,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3317,39 +3386,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5886857991974532</v>
+        <v>0.5368793562912595</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3358,30 +3427,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3399,30 +3468,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3440,30 +3509,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3481,36 +3550,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5737820814142299</v>
+        <v>0.5763211378137904</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -3522,16 +3591,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3549,57 +3618,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3617,39 +3686,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7227072555994847</v>
+        <v>0.7579296851575668</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -3658,36 +3727,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7172356392188513</v>
+        <v>0.7172356392188514</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3699,30 +3768,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3740,30 +3809,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3781,39 +3850,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8421307078035669</v>
+        <v>0.7191912963191404</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3822,30 +3891,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3863,30 +3932,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3904,30 +3973,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3945,36 +4014,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7037314454417687</v>
+        <v>0.7067362899345608</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -3986,16 +4055,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4013,57 +4082,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4081,39 +4150,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8098354298779493</v>
+        <v>0.8160829444548823</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4122,36 +4191,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8304946674845184</v>
+        <v>0.8304946674845186</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -4163,30 +4232,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4204,30 +4273,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4245,39 +4314,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8421307078035669</v>
+        <v>0.8556079858424187</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4286,30 +4355,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4327,30 +4396,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4368,30 +4437,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4409,36 +4478,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8134566877364628</v>
+        <v>0.8168548293551802</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4450,16 +4519,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4477,57 +4546,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4545,39 +4614,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9048433707681228</v>
+        <v>0.9071230283047674</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4586,36 +4655,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9505067105946766</v>
+        <v>0.9505067105946768</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -4627,36 +4696,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9456727311031841</v>
+        <v>0.945672731103184</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -4668,30 +4737,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4709,39 +4778,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9161984012006602</v>
+        <v>0.9062206469673448</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4750,30 +4819,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4791,30 +4860,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4832,30 +4901,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4873,27 +4942,27 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -4902,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9024551995158816</v>
+        <v>0.9036682904410115</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>28</v>
@@ -4914,16 +4983,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -568,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -686,1058 +683,1028 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.05297038464616081</v>
+      </c>
+      <c r="E2">
+        <v>0.1356762298869252</v>
+      </c>
+      <c r="F2">
+        <v>0.1994750483853086</v>
+      </c>
+      <c r="G2">
+        <v>0.2006395413159719</v>
+      </c>
+      <c r="H2">
+        <v>0.007318663073265654</v>
+      </c>
+      <c r="I2">
+        <v>0.04400348784835137</v>
+      </c>
+      <c r="J2">
+        <v>0.02410957867706498</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.02751691816342766</v>
+      </c>
+      <c r="O2">
+        <v>0.06353779161999124</v>
+      </c>
+      <c r="P2">
+        <v>0.0290398634109632</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.03816256716667495</v>
+      </c>
+      <c r="S2">
+        <v>0.0708673086435348</v>
+      </c>
+      <c r="T2">
+        <v>0.000274576494853592</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.002738795501720588</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.01007202049086012</v>
+      </c>
+      <c r="AB2">
+        <v>0.04291806153536796</v>
+      </c>
+      <c r="AC2">
+        <v>0.001637287706416448</v>
+      </c>
+      <c r="AD2">
+        <v>0.04024271955301729</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.007363811180126733</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0.00143534469999695</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.05297038464616081</v>
-      </c>
-      <c r="F2">
-        <v>0.1356762298869252</v>
-      </c>
-      <c r="G2">
-        <v>0.1994750483853086</v>
-      </c>
-      <c r="H2">
-        <v>0.2006395413159719</v>
-      </c>
-      <c r="I2">
-        <v>0.007318663073265654</v>
-      </c>
-      <c r="J2">
-        <v>0.04400348784835137</v>
-      </c>
-      <c r="K2">
-        <v>0.02410957867706498</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.02751691816342766</v>
-      </c>
-      <c r="P2">
-        <v>0.06353779161999124</v>
-      </c>
-      <c r="Q2">
-        <v>0.0290398634109632</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.03816256716667495</v>
-      </c>
-      <c r="T2">
-        <v>0.0708673086435348</v>
-      </c>
-      <c r="U2">
-        <v>0.000274576494853592</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.002738795501720588</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.01007202049086012</v>
-      </c>
-      <c r="AC2">
-        <v>0.04291806153536796</v>
-      </c>
-      <c r="AD2">
-        <v>0.001637287706416448</v>
-      </c>
-      <c r="AE2">
-        <v>0.04024271955301729</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.007363811180126733</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0.00143534469999695</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.3836777703248824</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.3390294852746024</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.02775523124625909</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.05937294303220547</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.09500794089017352</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.03339421420575456</v>
+      </c>
+      <c r="T3">
+        <v>0.0149539140430099</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.01018750739529834</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.03662099358781446</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.2474611676878563</v>
-      </c>
-      <c r="H3">
-        <v>0.01237602871349463</v>
-      </c>
-      <c r="I3">
-        <v>0.2223092996063118</v>
-      </c>
-      <c r="J3">
-        <v>0.01775774759867536</v>
-      </c>
-      <c r="K3">
-        <v>0.04695813067148273</v>
-      </c>
-      <c r="L3">
-        <v>0.0005408685515407208</v>
-      </c>
-      <c r="M3">
-        <v>0.06476944223663836</v>
-      </c>
-      <c r="N3">
-        <v>0.03132268321605371</v>
-      </c>
-      <c r="O3">
-        <v>0.00646745296913288</v>
-      </c>
-      <c r="P3">
-        <v>0.0003769612526911418</v>
-      </c>
-      <c r="Q3">
-        <v>0.02274607762271965</v>
-      </c>
-      <c r="R3">
-        <v>0.08484382503096947</v>
-      </c>
-      <c r="S3">
-        <v>0.008018501452995428</v>
-      </c>
-      <c r="T3">
-        <v>0.05013475784432009</v>
-      </c>
-      <c r="U3">
-        <v>0.0397467217404669</v>
-      </c>
-      <c r="V3">
-        <v>0.005006751874410212</v>
-      </c>
-      <c r="W3">
-        <v>0.0005641057665442489</v>
-      </c>
-      <c r="X3">
-        <v>0.000911998881169379</v>
-      </c>
-      <c r="Y3">
-        <v>6.201570205263743E-09</v>
-      </c>
-      <c r="Z3">
-        <v>0.0001254267761158035</v>
-      </c>
-      <c r="AA3">
-        <v>0.006628410673085011</v>
-      </c>
-      <c r="AB3">
-        <v>0.00099302023579558</v>
-      </c>
-      <c r="AC3">
-        <v>1.995794444105633E-06</v>
-      </c>
-      <c r="AD3">
-        <v>0.03706164590628353</v>
-      </c>
-      <c r="AE3">
-        <v>0.01172051194033225</v>
-      </c>
-      <c r="AF3">
-        <v>0.05195251029000578</v>
-      </c>
-      <c r="AG3">
-        <v>0.005392297505297918</v>
-      </c>
-      <c r="AH3">
-        <v>0.002140149715046931</v>
-      </c>
-      <c r="AI3">
-        <v>0.006430932627577705</v>
-      </c>
-      <c r="AJ3">
-        <v>0.008703082424361875</v>
-      </c>
-      <c r="AK3">
-        <v>0.005598176716343068</v>
-      </c>
-      <c r="AL3">
-        <v>0.0009393104762670945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.2777137229045041</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.1774583878446083</v>
+      </c>
+      <c r="H4">
+        <v>0.03238789157352606</v>
+      </c>
+      <c r="I4">
+        <v>0.007075103081405495</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.08934626048058314</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1332542733342242</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.03451075936593603</v>
+      </c>
+      <c r="Q4">
+        <v>0.07874826889973113</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.1200120431101582</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.001572664224808762</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.02935643246147893</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.01856419271903557</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.2777137229045041</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.1774583878446083</v>
-      </c>
-      <c r="I4">
-        <v>0.03238789157352606</v>
-      </c>
-      <c r="J4">
-        <v>0.007075103081405495</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.08934626048058313</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.1332542733342242</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.03451075936593603</v>
-      </c>
-      <c r="R4">
-        <v>0.07874826889973113</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.1200120431101583</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0.001572664224808765</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.02935643246147892</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.01856419271903557</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1301141207654352</v>
+      </c>
+      <c r="F5">
+        <v>0.02220605487709263</v>
+      </c>
+      <c r="G5">
+        <v>0.2993243146660582</v>
+      </c>
+      <c r="H5">
+        <v>0.1831472607901927</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.03346136526426405</v>
+      </c>
+      <c r="K5">
+        <v>0.04408908002606689</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.1147754313673516</v>
+      </c>
+      <c r="Q5">
+        <v>0.04841708252249372</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.07013802082422903</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.04832344834140326</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.006003820555412632</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.1301141207654352</v>
-      </c>
-      <c r="G5">
-        <v>0.02220605487709263</v>
-      </c>
-      <c r="H5">
-        <v>0.2993243146660582</v>
-      </c>
-      <c r="I5">
-        <v>0.1831472607901927</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.03346136526426404</v>
-      </c>
-      <c r="L5">
-        <v>0.04408908002606688</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.1147754313673516</v>
-      </c>
-      <c r="R5">
-        <v>0.04841708252249371</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.07013802082422903</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.04832344834140325</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.00600382055541263</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.3646139365389375</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.2061356765166351</v>
+      </c>
+      <c r="H6">
+        <v>0.02432872310287647</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.01114526996469504</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.06193224551067783</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.1553582875855918</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.1764858607805863</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.3646139365389375</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.2061356765166351</v>
-      </c>
-      <c r="I6">
-        <v>0.02432872310287647</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.01114526996469504</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.06193224551067783</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0.1553582875855918</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0.1764858607805863</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.4431557311930721</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.1455300680043812</v>
+      </c>
+      <c r="H7">
+        <v>0.03272311780420604</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.01389591376997547</v>
+      </c>
+      <c r="N7">
+        <v>0.2068258770319322</v>
+      </c>
+      <c r="O7">
+        <v>0.008710618960301642</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.06535707443679159</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.08380159879933981</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.006086388772193516</v>
-      </c>
-      <c r="F7">
-        <v>0.1807590189708088</v>
-      </c>
-      <c r="G7">
-        <v>0.01229901998184699</v>
-      </c>
-      <c r="H7">
-        <v>0.09727601004149847</v>
-      </c>
-      <c r="I7">
-        <v>0.06563403558958793</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2.534810265406273E-06</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.06035306745779363</v>
-      </c>
-      <c r="O7">
-        <v>0.1144692806672648</v>
-      </c>
-      <c r="P7">
-        <v>0.05889860950460744</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0.04862557860503124</v>
-      </c>
-      <c r="S7">
-        <v>0.07478775191824215</v>
-      </c>
-      <c r="T7">
-        <v>0.05645530984875197</v>
-      </c>
-      <c r="U7">
-        <v>0.07996137967452632</v>
-      </c>
-      <c r="V7">
-        <v>0.02509763475740262</v>
-      </c>
-      <c r="W7">
-        <v>0.003525374086606324</v>
-      </c>
-      <c r="X7">
-        <v>0.002862815232239838</v>
-      </c>
-      <c r="Y7">
-        <v>0.00295761602403733</v>
-      </c>
-      <c r="Z7">
-        <v>0.009471138813788058</v>
-      </c>
-      <c r="AA7">
-        <v>0.006698082210851867</v>
-      </c>
-      <c r="AB7">
-        <v>0.001519476842641334</v>
-      </c>
-      <c r="AC7">
-        <v>0.05460789975413955</v>
-      </c>
-      <c r="AD7">
-        <v>0.01513607540268166</v>
-      </c>
-      <c r="AE7">
-        <v>0.01315875605499294</v>
-      </c>
-      <c r="AF7">
-        <v>0.002379071068140016</v>
-      </c>
-      <c r="AG7">
-        <v>0.001121013048178207</v>
-      </c>
-      <c r="AH7">
-        <v>0.004724537916264951</v>
-      </c>
-      <c r="AI7">
-        <v>3.169674670060058E-07</v>
-      </c>
-      <c r="AJ7">
-        <v>0.00113220597814956</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.1543911917533435</v>
+      </c>
+      <c r="E8">
+        <v>0.04102669884218635</v>
+      </c>
+      <c r="F8">
+        <v>0.08727672018643186</v>
+      </c>
+      <c r="G8">
+        <v>0.03360953575887485</v>
+      </c>
+      <c r="H8">
+        <v>0.001318731795652535</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.02438371834142813</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.2220360007878049</v>
+      </c>
+      <c r="N8">
+        <v>0.008685998009897963</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.08717717278133869</v>
+      </c>
+      <c r="Q8">
+        <v>0.004472512155076398</v>
+      </c>
+      <c r="R8">
+        <v>0.1065156295587459</v>
+      </c>
+      <c r="S8">
+        <v>0.01987413724621212</v>
+      </c>
+      <c r="T8">
+        <v>0.006996857440131413</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.02630769125026503</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.01718410727177015</v>
+      </c>
+      <c r="Z8">
+        <v>0.03321342888643774</v>
+      </c>
+      <c r="AA8">
+        <v>0.102748143472314</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0.01652877356140047</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.002171052474924364</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.002577011832475159</v>
+      </c>
+      <c r="AI8">
+        <v>0.001504886593288575</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1543911917533435</v>
-      </c>
-      <c r="F8">
-        <v>0.04102669884218635</v>
-      </c>
-      <c r="G8">
-        <v>0.08727672018643186</v>
-      </c>
-      <c r="H8">
-        <v>0.03360953575887485</v>
-      </c>
-      <c r="I8">
-        <v>0.001318731795652535</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.02438371834142813</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0.2220360007878049</v>
-      </c>
-      <c r="O8">
-        <v>0.008685998009897963</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.08717717278133869</v>
-      </c>
-      <c r="R8">
-        <v>0.004472512155076398</v>
-      </c>
-      <c r="S8">
-        <v>0.1065156295587459</v>
-      </c>
-      <c r="T8">
-        <v>0.01987413724621212</v>
-      </c>
-      <c r="U8">
-        <v>0.006996857440131413</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0.02630769125026503</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0.01718410727177015</v>
-      </c>
-      <c r="AA8">
-        <v>0.03321342888643774</v>
-      </c>
-      <c r="AB8">
-        <v>0.102748143472314</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0.01652877356140047</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.002171052474924364</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0.002577011832475159</v>
-      </c>
-      <c r="AJ8">
-        <v>0.001504886593288575</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1788186158131467</v>
+      </c>
+      <c r="E9">
+        <v>0.02209860809295809</v>
+      </c>
+      <c r="F9">
+        <v>0.09719498806463224</v>
+      </c>
+      <c r="G9">
+        <v>0.05931098154901403</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.003485089925620689</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.01261742439425821</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.1833995291387309</v>
+      </c>
+      <c r="N9">
+        <v>0.04243129725092648</v>
+      </c>
+      <c r="O9">
+        <v>0.002123546320110294</v>
+      </c>
+      <c r="P9">
+        <v>0.07318358311951975</v>
+      </c>
+      <c r="Q9">
+        <v>0.02196445393172372</v>
+      </c>
+      <c r="R9">
+        <v>0.03951254251402727</v>
+      </c>
+      <c r="S9">
+        <v>0.03201134109491233</v>
+      </c>
+      <c r="T9">
+        <v>0.005936420839470588</v>
+      </c>
+      <c r="U9">
+        <v>0.003276018411073404</v>
+      </c>
+      <c r="V9">
+        <v>0.0008267670861836623</v>
+      </c>
+      <c r="W9">
+        <v>0.03020299211875048</v>
+      </c>
+      <c r="X9">
+        <v>0.00598617971657023</v>
+      </c>
+      <c r="Y9">
+        <v>0.02793544334693678</v>
+      </c>
+      <c r="Z9">
+        <v>0.02073210891982968</v>
+      </c>
+      <c r="AA9">
+        <v>0.1081966826893902</v>
+      </c>
+      <c r="AB9">
+        <v>0.0007946395871883999</v>
+      </c>
+      <c r="AC9">
+        <v>0.02423536756947906</v>
+      </c>
+      <c r="AD9">
+        <v>0.001378536951427091</v>
+      </c>
+      <c r="AE9">
+        <v>9.227508959011932E-05</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.00164139533381585</v>
+      </c>
+      <c r="AI9">
+        <v>0.0006131711307135677</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1788186158131467</v>
-      </c>
-      <c r="F9">
-        <v>0.02209860809295809</v>
-      </c>
-      <c r="G9">
-        <v>0.09719498806463224</v>
-      </c>
-      <c r="H9">
-        <v>0.05931098154901403</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.003485089925620689</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.01261742439425821</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.1833995291387309</v>
-      </c>
-      <c r="O9">
-        <v>0.04243129725092648</v>
-      </c>
-      <c r="P9">
-        <v>0.002123546320110294</v>
-      </c>
-      <c r="Q9">
-        <v>0.07318358311951975</v>
-      </c>
-      <c r="R9">
-        <v>0.02196445393172372</v>
-      </c>
-      <c r="S9">
-        <v>0.03951254251402727</v>
-      </c>
-      <c r="T9">
-        <v>0.03201134109491233</v>
-      </c>
-      <c r="U9">
-        <v>0.005936420839470588</v>
-      </c>
-      <c r="V9">
-        <v>0.003276018411073404</v>
-      </c>
-      <c r="W9">
-        <v>0.0008267670861836623</v>
-      </c>
-      <c r="X9">
-        <v>0.03020299211875048</v>
-      </c>
-      <c r="Y9">
-        <v>0.00598617971657023</v>
-      </c>
-      <c r="Z9">
-        <v>0.02793544334693678</v>
-      </c>
-      <c r="AA9">
-        <v>0.02073210891982968</v>
-      </c>
-      <c r="AB9">
-        <v>0.1081966826893902</v>
-      </c>
-      <c r="AC9">
-        <v>0.0007946395871883999</v>
-      </c>
-      <c r="AD9">
-        <v>0.02423536756947906</v>
-      </c>
-      <c r="AE9">
-        <v>0.001378536951427091</v>
-      </c>
-      <c r="AF9">
-        <v>9.227508959011932E-05</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0.00164139533381585</v>
-      </c>
-      <c r="AJ9">
-        <v>0.0006131711307135677</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.2126274514699924</v>
+      </c>
+      <c r="E10">
+        <v>0.01694011090849707</v>
+      </c>
+      <c r="F10">
+        <v>0.08249771652637171</v>
+      </c>
+      <c r="G10">
+        <v>0.04944733956712312</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.02346402084522233</v>
+      </c>
+      <c r="L10">
+        <v>0.004895967388760553</v>
+      </c>
+      <c r="M10">
+        <v>0.1317278720527109</v>
+      </c>
+      <c r="N10">
+        <v>0.01700835526117341</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.07155836123161188</v>
+      </c>
+      <c r="Q10">
+        <v>0.01954200773926466</v>
+      </c>
+      <c r="R10">
+        <v>0.14181818897245</v>
+      </c>
+      <c r="S10">
+        <v>0.05431381463594378</v>
+      </c>
+      <c r="T10">
+        <v>0.01015542553093807</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.003044983786755931</v>
+      </c>
+      <c r="W10">
+        <v>0.01035278526444609</v>
+      </c>
+      <c r="X10">
+        <v>0.003135276445138575</v>
+      </c>
+      <c r="Y10">
+        <v>0.01030164526399925</v>
+      </c>
+      <c r="Z10">
+        <v>0.00807312348199375</v>
+      </c>
+      <c r="AA10">
+        <v>0.06295315466508522</v>
+      </c>
+      <c r="AB10">
+        <v>0.0002907998334747957</v>
+      </c>
+      <c r="AC10">
+        <v>0.01544549186722567</v>
+      </c>
+      <c r="AD10">
+        <v>0.002727750063823698</v>
+      </c>
+      <c r="AE10">
+        <v>0.01652058871996369</v>
+      </c>
+      <c r="AF10">
+        <v>0.01093952492749753</v>
+      </c>
+      <c r="AG10">
+        <v>0.0004976487674041297</v>
+      </c>
+      <c r="AH10">
+        <v>0.008931535297858503</v>
+      </c>
+      <c r="AI10">
+        <v>0.01078905948527357</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.2126274514699924</v>
-      </c>
-      <c r="F10">
-        <v>0.01694011090849707</v>
-      </c>
-      <c r="G10">
-        <v>0.08249771652637171</v>
-      </c>
-      <c r="H10">
-        <v>0.04944733956712312</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.02346402084522233</v>
-      </c>
-      <c r="M10">
-        <v>0.004895967388760553</v>
-      </c>
-      <c r="N10">
-        <v>0.1317278720527109</v>
-      </c>
-      <c r="O10">
-        <v>0.01700835526117341</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0.07155836123161188</v>
-      </c>
-      <c r="R10">
-        <v>0.01954200773926466</v>
-      </c>
-      <c r="S10">
-        <v>0.14181818897245</v>
-      </c>
-      <c r="T10">
-        <v>0.05431381463594378</v>
-      </c>
-      <c r="U10">
-        <v>0.01015542553093807</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.003044983786755931</v>
-      </c>
-      <c r="X10">
-        <v>0.01035278526444609</v>
-      </c>
-      <c r="Y10">
-        <v>0.003135276445138575</v>
-      </c>
-      <c r="Z10">
-        <v>0.01030164526399925</v>
-      </c>
-      <c r="AA10">
-        <v>0.00807312348199375</v>
-      </c>
-      <c r="AB10">
-        <v>0.06295315466508522</v>
-      </c>
-      <c r="AC10">
-        <v>0.0002907998334747957</v>
-      </c>
-      <c r="AD10">
-        <v>0.01544549186722567</v>
-      </c>
-      <c r="AE10">
-        <v>0.002727750063823698</v>
-      </c>
-      <c r="AF10">
-        <v>0.01652058871996369</v>
-      </c>
-      <c r="AG10">
-        <v>0.01093952492749753</v>
-      </c>
-      <c r="AH10">
-        <v>0.0004976487674041297</v>
-      </c>
-      <c r="AI10">
-        <v>0.008931535297858503</v>
-      </c>
-      <c r="AJ10">
-        <v>0.01078905948527357</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -1745,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0004824025357074936</v>
+        <v>0.2175140595559246</v>
       </c>
       <c r="E11">
-        <v>0.2182937129217554</v>
+        <v>0.019083071463209</v>
       </c>
       <c r="F11">
-        <v>0.01915147247106594</v>
+        <v>0.0993843278047901</v>
       </c>
       <c r="G11">
-        <v>0.09974055914837328</v>
+        <v>0.06360127890240132</v>
       </c>
       <c r="H11">
-        <v>0.06382925014834578</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1766,87 +1733,84 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.02744753949144789</v>
       </c>
       <c r="L11">
-        <v>0.02754592194356142</v>
+        <v>0.01070007283423736</v>
       </c>
       <c r="M11">
-        <v>0.01073842597709571</v>
+        <v>0.1360517313622197</v>
       </c>
       <c r="N11">
-        <v>0.1365393926678853</v>
+        <v>0.02135428670857296</v>
       </c>
       <c r="O11">
-        <v>0.02143082861828328</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.07267396527716311</v>
       </c>
       <c r="Q11">
-        <v>0.07293445649208637</v>
+        <v>0.03592111204180266</v>
       </c>
       <c r="R11">
-        <v>0.03604986701040081</v>
+        <v>0.1097252422946942</v>
       </c>
       <c r="S11">
-        <v>0.1101185394206194</v>
+        <v>0.05355689830283687</v>
       </c>
       <c r="T11">
-        <v>0.05374886665702287</v>
+        <v>0.01600364870607804</v>
       </c>
       <c r="U11">
-        <v>0.01606101188804771</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.004150410369109583</v>
       </c>
       <c r="X11">
-        <v>0.004165287023154208</v>
+        <v>0.001505047059082474</v>
       </c>
       <c r="Y11">
-        <v>0.001510441721881482</v>
+        <v>0.01128739546451026</v>
       </c>
       <c r="Z11">
-        <v>0.01132785379572497</v>
+        <v>0.002495111877801517</v>
       </c>
       <c r="AA11">
-        <v>0.00250405531059673</v>
+        <v>0.06003718845418209</v>
       </c>
       <c r="AB11">
-        <v>0.06025238464034535</v>
+        <v>0.004077616525920535</v>
       </c>
       <c r="AC11">
-        <v>0.00409223225906207</v>
+        <v>0.009260769053835754</v>
       </c>
       <c r="AD11">
-        <v>0.009293963182885369</v>
+        <v>0.001102608581687768</v>
       </c>
       <c r="AE11">
-        <v>0.001106560751463192</v>
+        <v>0.009510127299251435</v>
       </c>
       <c r="AF11">
-        <v>0.009544215223376793</v>
+        <v>0.002868943551627778</v>
       </c>
       <c r="AG11">
-        <v>0.002879226939749777</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.006635287848656949</v>
       </c>
       <c r="AI11">
-        <v>0.006659071251509266</v>
+        <v>0.004052259168956086</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
         <v>0</v>
       </c>
     </row>
@@ -1857,15 +1821,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1975,13 +1939,10 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1990,25 +1951,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05297038464616081</v>
       </c>
       <c r="E2">
-        <v>0.05297038464616081</v>
+        <v>0.188646614533086</v>
       </c>
       <c r="F2">
-        <v>0.188646614533086</v>
+        <v>0.3881216629183946</v>
       </c>
       <c r="G2">
-        <v>0.3881216629183946</v>
+        <v>0.5887612042343665</v>
       </c>
       <c r="H2">
-        <v>0.5887612042343665</v>
+        <v>0.5960798673076322</v>
       </c>
       <c r="I2">
-        <v>0.5960798673076322</v>
+        <v>0.6400833551559836</v>
       </c>
       <c r="J2">
-        <v>0.6400833551559836</v>
+        <v>0.6641929338330486</v>
       </c>
       <c r="K2">
         <v>0.6641929338330486</v>
@@ -2020,25 +1981,25 @@
         <v>0.6641929338330486</v>
       </c>
       <c r="N2">
-        <v>0.6641929338330486</v>
+        <v>0.6917098519964762</v>
       </c>
       <c r="O2">
-        <v>0.6917098519964762</v>
+        <v>0.7552476436164675</v>
       </c>
       <c r="P2">
-        <v>0.7552476436164675</v>
+        <v>0.7842875070274307</v>
       </c>
       <c r="Q2">
         <v>0.7842875070274307</v>
       </c>
       <c r="R2">
-        <v>0.7842875070274307</v>
+        <v>0.8224500741941057</v>
       </c>
       <c r="S2">
-        <v>0.8224500741941057</v>
+        <v>0.8933173828376404</v>
       </c>
       <c r="T2">
-        <v>0.8933173828376404</v>
+        <v>0.893591959332494</v>
       </c>
       <c r="U2">
         <v>0.893591959332494</v>
@@ -2050,7 +2011,7 @@
         <v>0.893591959332494</v>
       </c>
       <c r="X2">
-        <v>0.893591959332494</v>
+        <v>0.8963307548342146</v>
       </c>
       <c r="Y2">
         <v>0.8963307548342146</v>
@@ -2059,16 +2020,16 @@
         <v>0.8963307548342146</v>
       </c>
       <c r="AA2">
-        <v>0.8963307548342146</v>
+        <v>0.9064027753250747</v>
       </c>
       <c r="AB2">
-        <v>0.9064027753250747</v>
+        <v>0.9493208368604427</v>
       </c>
       <c r="AC2">
-        <v>0.9493208368604427</v>
+        <v>0.9509581245668591</v>
       </c>
       <c r="AD2">
-        <v>0.9509581245668591</v>
+        <v>0.9912008441198764</v>
       </c>
       <c r="AE2">
         <v>0.9912008441198764</v>
@@ -2077,13 +2038,13 @@
         <v>0.9912008441198764</v>
       </c>
       <c r="AG2">
-        <v>0.9912008441198764</v>
+        <v>0.9985646553000032</v>
       </c>
       <c r="AH2">
         <v>0.9985646553000032</v>
       </c>
       <c r="AI2">
-        <v>0.9985646553000032</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -2091,130 +2052,124 @@
       <c r="AK2">
         <v>1</v>
       </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.3836777703248824</v>
+      </c>
+      <c r="G3">
+        <v>0.3836777703248824</v>
+      </c>
+      <c r="H3">
+        <v>0.7227072555994847</v>
+      </c>
+      <c r="I3">
+        <v>0.7227072555994847</v>
+      </c>
+      <c r="J3">
+        <v>0.7504624868457438</v>
+      </c>
+      <c r="K3">
+        <v>0.7504624868457438</v>
+      </c>
+      <c r="L3">
+        <v>0.8098354298779493</v>
+      </c>
+      <c r="M3">
+        <v>0.8098354298779493</v>
+      </c>
+      <c r="N3">
+        <v>0.8098354298779493</v>
+      </c>
+      <c r="O3">
+        <v>0.8098354298779493</v>
+      </c>
+      <c r="P3">
+        <v>0.8098354298779493</v>
+      </c>
+      <c r="Q3">
+        <v>0.9048433707681228</v>
+      </c>
+      <c r="R3">
+        <v>0.9048433707681228</v>
+      </c>
+      <c r="S3">
+        <v>0.9382375849738774</v>
+      </c>
+      <c r="T3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="U3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="V3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="W3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="X3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="Y3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="Z3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="AA3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="AB3">
+        <v>0.9531914990168874</v>
+      </c>
+      <c r="AC3">
+        <v>0.9633790064121858</v>
+      </c>
+      <c r="AD3">
+        <v>0.9633790064121858</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.2474611676878563</v>
-      </c>
-      <c r="H3">
-        <v>0.2598371964013509</v>
-      </c>
-      <c r="I3">
-        <v>0.4821464960076628</v>
-      </c>
-      <c r="J3">
-        <v>0.4999042436063382</v>
-      </c>
-      <c r="K3">
-        <v>0.5468623742778209</v>
-      </c>
-      <c r="L3">
-        <v>0.5474032428293616</v>
-      </c>
-      <c r="M3">
-        <v>0.612172685066</v>
-      </c>
-      <c r="N3">
-        <v>0.6434953682820537</v>
-      </c>
-      <c r="O3">
-        <v>0.6499628212511865</v>
-      </c>
-      <c r="P3">
-        <v>0.6503397825038777</v>
-      </c>
-      <c r="Q3">
-        <v>0.6730858601265973</v>
-      </c>
-      <c r="R3">
-        <v>0.7579296851575668</v>
-      </c>
-      <c r="S3">
-        <v>0.7659481866105622</v>
-      </c>
-      <c r="T3">
-        <v>0.8160829444548823</v>
-      </c>
-      <c r="U3">
-        <v>0.8558296661953492</v>
-      </c>
-      <c r="V3">
-        <v>0.8608364180697594</v>
-      </c>
-      <c r="W3">
-        <v>0.8614005238363036</v>
-      </c>
-      <c r="X3">
-        <v>0.8623125227174729</v>
-      </c>
-      <c r="Y3">
-        <v>0.8623125289190432</v>
-      </c>
-      <c r="Z3">
-        <v>0.862437955695159</v>
-      </c>
-      <c r="AA3">
-        <v>0.8690663663682441</v>
-      </c>
-      <c r="AB3">
-        <v>0.8700593866040397</v>
-      </c>
-      <c r="AC3">
-        <v>0.8700613823984839</v>
-      </c>
-      <c r="AD3">
-        <v>0.9071230283047674</v>
-      </c>
-      <c r="AE3">
-        <v>0.9188435402450996</v>
-      </c>
-      <c r="AF3">
-        <v>0.9707960505351054</v>
-      </c>
-      <c r="AG3">
-        <v>0.9761883480404033</v>
-      </c>
-      <c r="AH3">
-        <v>0.9783284977554503</v>
-      </c>
-      <c r="AI3">
-        <v>0.9847594303830279</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9934625128073898</v>
-      </c>
-      <c r="AK3">
-        <v>0.9990606895237329</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -2225,111 +2180,108 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.2777137229045041</v>
       </c>
       <c r="F4">
         <v>0.2777137229045041</v>
       </c>
       <c r="G4">
-        <v>0.2777137229045041</v>
+        <v>0.4551721107491124</v>
       </c>
       <c r="H4">
-        <v>0.4551721107491125</v>
+        <v>0.4875600023226385</v>
       </c>
       <c r="I4">
-        <v>0.4875600023226385</v>
+        <v>0.494635105404044</v>
       </c>
       <c r="J4">
         <v>0.494635105404044</v>
       </c>
       <c r="K4">
-        <v>0.494635105404044</v>
+        <v>0.5839813658846271</v>
       </c>
       <c r="L4">
         <v>0.5839813658846271</v>
       </c>
       <c r="M4">
-        <v>0.5839813658846271</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="N4">
-        <v>0.7172356392188514</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="O4">
-        <v>0.7172356392188514</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="P4">
-        <v>0.7172356392188514</v>
+        <v>0.7517463985847873</v>
       </c>
       <c r="Q4">
-        <v>0.7517463985847874</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="R4">
-        <v>0.8304946674845186</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="S4">
-        <v>0.8304946674845186</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="T4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="U4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="V4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="W4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="X4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="Y4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="Z4">
-        <v>0.9505067105946768</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AA4">
-        <v>0.9520793748194856</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AB4">
-        <v>0.9520793748194856</v>
+        <v>0.9520793748194853</v>
       </c>
       <c r="AC4">
-        <v>0.9520793748194856</v>
+        <v>0.9814358072809642</v>
       </c>
       <c r="AD4">
-        <v>0.9814358072809645</v>
+        <v>0.9814358072809642</v>
       </c>
       <c r="AE4">
-        <v>0.9814358072809645</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2341,25 +2293,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1301141207654352</v>
       </c>
       <c r="F5">
-        <v>0.1301141207654352</v>
+        <v>0.1523201756425279</v>
       </c>
       <c r="G5">
-        <v>0.1523201756425278</v>
+        <v>0.4516444903085861</v>
       </c>
       <c r="H5">
-        <v>0.451644490308586</v>
+        <v>0.6347917510987787</v>
       </c>
       <c r="I5">
         <v>0.6347917510987787</v>
       </c>
       <c r="J5">
-        <v>0.6347917510987787</v>
+        <v>0.6682531163630427</v>
       </c>
       <c r="K5">
-        <v>0.6682531163630427</v>
+        <v>0.7123421963891097</v>
       </c>
       <c r="L5">
         <v>0.7123421963891097</v>
@@ -2374,78 +2326,75 @@
         <v>0.7123421963891097</v>
       </c>
       <c r="P5">
-        <v>0.7123421963891097</v>
+        <v>0.8271176277564612</v>
       </c>
       <c r="Q5">
-        <v>0.8271176277564612</v>
+        <v>0.875534710278955</v>
       </c>
       <c r="R5">
-        <v>0.8755347102789549</v>
+        <v>0.875534710278955</v>
       </c>
       <c r="S5">
-        <v>0.8755347102789549</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="T5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="U5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="V5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="W5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="X5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="Y5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="Z5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AA5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AB5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="AC5">
-        <v>0.945672731103184</v>
+        <v>0.9939961794445873</v>
       </c>
       <c r="AD5">
-        <v>0.9939961794445872</v>
+        <v>0.9939961794445873</v>
       </c>
       <c r="AE5">
-        <v>0.9939961794445872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2457,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3646139365389375</v>
       </c>
       <c r="F6">
         <v>0.3646139365389375</v>
       </c>
       <c r="G6">
-        <v>0.3646139365389375</v>
+        <v>0.5707496130555727</v>
       </c>
       <c r="H6">
-        <v>0.5707496130555727</v>
+        <v>0.5950783361584492</v>
       </c>
       <c r="I6">
         <v>0.5950783361584492</v>
@@ -2475,13 +2424,13 @@
         <v>0.5950783361584492</v>
       </c>
       <c r="K6">
-        <v>0.5950783361584492</v>
+        <v>0.6062236061231442</v>
       </c>
       <c r="L6">
         <v>0.6062236061231442</v>
       </c>
       <c r="M6">
-        <v>0.6062236061231442</v>
+        <v>0.668155851633822</v>
       </c>
       <c r="N6">
         <v>0.668155851633822</v>
@@ -2493,13 +2442,13 @@
         <v>0.668155851633822</v>
       </c>
       <c r="Q6">
-        <v>0.668155851633822</v>
+        <v>0.8235141392194137</v>
       </c>
       <c r="R6">
         <v>0.8235141392194137</v>
       </c>
       <c r="S6">
-        <v>0.8235141392194137</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2555,130 +2504,124 @@
       <c r="AK6">
         <v>1</v>
       </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.4431557311930721</v>
+      </c>
+      <c r="F7">
+        <v>0.4431557311930721</v>
+      </c>
+      <c r="G7">
+        <v>0.5886857991974532</v>
+      </c>
+      <c r="H7">
+        <v>0.6214089170016592</v>
+      </c>
+      <c r="I7">
+        <v>0.6214089170016592</v>
+      </c>
+      <c r="J7">
+        <v>0.6214089170016592</v>
+      </c>
+      <c r="K7">
+        <v>0.6214089170016592</v>
+      </c>
+      <c r="L7">
+        <v>0.6214089170016592</v>
+      </c>
+      <c r="M7">
+        <v>0.6353048307716347</v>
+      </c>
+      <c r="N7">
+        <v>0.8421307078035669</v>
+      </c>
+      <c r="O7">
+        <v>0.8508413267638686</v>
+      </c>
+      <c r="P7">
+        <v>0.8508413267638686</v>
+      </c>
+      <c r="Q7">
+        <v>0.8508413267638686</v>
+      </c>
+      <c r="R7">
+        <v>0.9161984012006602</v>
+      </c>
+      <c r="S7">
+        <v>0.9161984012006602</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.006086388772193516</v>
-      </c>
-      <c r="F7">
-        <v>0.1868454077430023</v>
-      </c>
-      <c r="G7">
-        <v>0.1991444277248493</v>
-      </c>
-      <c r="H7">
-        <v>0.2964204377663477</v>
-      </c>
-      <c r="I7">
-        <v>0.3620544733559357</v>
-      </c>
-      <c r="J7">
-        <v>0.3620544733559357</v>
-      </c>
-      <c r="K7">
-        <v>0.3620570081662011</v>
-      </c>
-      <c r="L7">
-        <v>0.3620570081662011</v>
-      </c>
-      <c r="M7">
-        <v>0.3620570081662011</v>
-      </c>
-      <c r="N7">
-        <v>0.4224100756239947</v>
-      </c>
-      <c r="O7">
-        <v>0.5368793562912595</v>
-      </c>
-      <c r="P7">
-        <v>0.5957779657958669</v>
-      </c>
-      <c r="Q7">
-        <v>0.5957779657958669</v>
-      </c>
-      <c r="R7">
-        <v>0.6444035444008982</v>
-      </c>
-      <c r="S7">
-        <v>0.7191912963191404</v>
-      </c>
-      <c r="T7">
-        <v>0.7756466061678924</v>
-      </c>
-      <c r="U7">
-        <v>0.8556079858424187</v>
-      </c>
-      <c r="V7">
-        <v>0.8807056205998214</v>
-      </c>
-      <c r="W7">
-        <v>0.8842309946864277</v>
-      </c>
-      <c r="X7">
-        <v>0.8870938099186676</v>
-      </c>
-      <c r="Y7">
-        <v>0.8900514259427049</v>
-      </c>
-      <c r="Z7">
-        <v>0.8995225647564929</v>
-      </c>
-      <c r="AA7">
-        <v>0.9062206469673448</v>
-      </c>
-      <c r="AB7">
-        <v>0.9077401238099861</v>
-      </c>
-      <c r="AC7">
-        <v>0.9623480235641257</v>
-      </c>
-      <c r="AD7">
-        <v>0.9774840989668074</v>
-      </c>
-      <c r="AE7">
-        <v>0.9906428550218004</v>
-      </c>
-      <c r="AF7">
-        <v>0.9930219260899404</v>
-      </c>
-      <c r="AG7">
-        <v>0.9941429391381187</v>
-      </c>
-      <c r="AH7">
-        <v>0.9988674770543836</v>
-      </c>
-      <c r="AI7">
-        <v>0.9988677940218507</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -2686,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1543911917533435</v>
       </c>
       <c r="E8">
-        <v>0.1543911917533435</v>
+        <v>0.1954178905955299</v>
       </c>
       <c r="F8">
-        <v>0.1954178905955299</v>
+        <v>0.2826946107819617</v>
       </c>
       <c r="G8">
-        <v>0.2826946107819617</v>
+        <v>0.3163041465408366</v>
       </c>
       <c r="H8">
-        <v>0.3163041465408366</v>
+        <v>0.3176228783364892</v>
       </c>
       <c r="I8">
         <v>0.3176228783364892</v>
@@ -2707,34 +2650,34 @@
         <v>0.3176228783364892</v>
       </c>
       <c r="K8">
-        <v>0.3176228783364892</v>
+        <v>0.3420065966779173</v>
       </c>
       <c r="L8">
         <v>0.3420065966779173</v>
       </c>
       <c r="M8">
-        <v>0.3420065966779173</v>
+        <v>0.5640425974657222</v>
       </c>
       <c r="N8">
-        <v>0.5640425974657222</v>
+        <v>0.5727285954756202</v>
       </c>
       <c r="O8">
         <v>0.5727285954756202</v>
       </c>
       <c r="P8">
-        <v>0.5727285954756202</v>
+        <v>0.6599057682569589</v>
       </c>
       <c r="Q8">
-        <v>0.6599057682569589</v>
+        <v>0.6643782804120353</v>
       </c>
       <c r="R8">
-        <v>0.6643782804120353</v>
+        <v>0.7708939099707812</v>
       </c>
       <c r="S8">
-        <v>0.7708939099707812</v>
+        <v>0.7907680472169933</v>
       </c>
       <c r="T8">
-        <v>0.7907680472169933</v>
+        <v>0.7977649046571248</v>
       </c>
       <c r="U8">
         <v>0.7977649046571248</v>
@@ -2743,31 +2686,31 @@
         <v>0.7977649046571248</v>
       </c>
       <c r="W8">
-        <v>0.7977649046571248</v>
+        <v>0.8240725959073898</v>
       </c>
       <c r="X8">
         <v>0.8240725959073898</v>
       </c>
       <c r="Y8">
-        <v>0.8240725959073898</v>
+        <v>0.8412567031791599</v>
       </c>
       <c r="Z8">
-        <v>0.8412567031791599</v>
+        <v>0.8744701320655976</v>
       </c>
       <c r="AA8">
-        <v>0.8744701320655976</v>
+        <v>0.9772182755379116</v>
       </c>
       <c r="AB8">
         <v>0.9772182755379116</v>
       </c>
       <c r="AC8">
-        <v>0.9772182755379116</v>
+        <v>0.9937470490993121</v>
       </c>
       <c r="AD8">
         <v>0.9937470490993121</v>
       </c>
       <c r="AE8">
-        <v>0.9937470490993121</v>
+        <v>0.9959181015742364</v>
       </c>
       <c r="AF8">
         <v>0.9959181015742364</v>
@@ -2776,10 +2719,10 @@
         <v>0.9959181015742364</v>
       </c>
       <c r="AH8">
-        <v>0.9959181015742364</v>
+        <v>0.9984951134067116</v>
       </c>
       <c r="AI8">
-        <v>0.9984951134067116</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2787,13 +2730,10 @@
       <c r="AK8">
         <v>1</v>
       </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2802,88 +2742,88 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1788186158131467</v>
       </c>
       <c r="E9">
-        <v>0.1788186158131467</v>
+        <v>0.2009172239061048</v>
       </c>
       <c r="F9">
-        <v>0.2009172239061048</v>
+        <v>0.2981122119707371</v>
       </c>
       <c r="G9">
-        <v>0.2981122119707371</v>
+        <v>0.3574231935197511</v>
       </c>
       <c r="H9">
         <v>0.3574231935197511</v>
       </c>
       <c r="I9">
-        <v>0.3574231935197511</v>
+        <v>0.3609082834453718</v>
       </c>
       <c r="J9">
         <v>0.3609082834453718</v>
       </c>
       <c r="K9">
-        <v>0.3609082834453718</v>
+        <v>0.37352570783963</v>
       </c>
       <c r="L9">
         <v>0.37352570783963</v>
       </c>
       <c r="M9">
-        <v>0.37352570783963</v>
+        <v>0.5569252369783608</v>
       </c>
       <c r="N9">
-        <v>0.5569252369783608</v>
+        <v>0.5993565342292873</v>
       </c>
       <c r="O9">
-        <v>0.5993565342292873</v>
+        <v>0.6014800805493975</v>
       </c>
       <c r="P9">
-        <v>0.6014800805493975</v>
+        <v>0.6746636636689173</v>
       </c>
       <c r="Q9">
-        <v>0.6746636636689173</v>
+        <v>0.696628117600641</v>
       </c>
       <c r="R9">
-        <v>0.696628117600641</v>
+        <v>0.7361406601146683</v>
       </c>
       <c r="S9">
-        <v>0.7361406601146683</v>
+        <v>0.7681520012095806</v>
       </c>
       <c r="T9">
-        <v>0.7681520012095806</v>
+        <v>0.7740884220490512</v>
       </c>
       <c r="U9">
-        <v>0.7740884220490512</v>
+        <v>0.7773644404601245</v>
       </c>
       <c r="V9">
-        <v>0.7773644404601245</v>
+        <v>0.7781912075463082</v>
       </c>
       <c r="W9">
-        <v>0.7781912075463082</v>
+        <v>0.8083941996650587</v>
       </c>
       <c r="X9">
-        <v>0.8083941996650587</v>
+        <v>0.8143803793816289</v>
       </c>
       <c r="Y9">
-        <v>0.8143803793816289</v>
+        <v>0.8423158227285656</v>
       </c>
       <c r="Z9">
-        <v>0.8423158227285656</v>
+        <v>0.8630479316483953</v>
       </c>
       <c r="AA9">
-        <v>0.8630479316483953</v>
+        <v>0.9712446143377855</v>
       </c>
       <c r="AB9">
-        <v>0.9712446143377855</v>
+        <v>0.9720392539249739</v>
       </c>
       <c r="AC9">
-        <v>0.9720392539249739</v>
+        <v>0.996274621494453</v>
       </c>
       <c r="AD9">
-        <v>0.996274621494453</v>
+        <v>0.9976531584458801</v>
       </c>
       <c r="AE9">
-        <v>0.9976531584458801</v>
+        <v>0.9977454335354702</v>
       </c>
       <c r="AF9">
         <v>0.9977454335354702</v>
@@ -2892,10 +2832,10 @@
         <v>0.9977454335354702</v>
       </c>
       <c r="AH9">
-        <v>0.9977454335354702</v>
+        <v>0.999386828869286</v>
       </c>
       <c r="AI9">
-        <v>0.999386828869286</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ9">
         <v>0.9999999999999996</v>
@@ -2903,13 +2843,10 @@
       <c r="AK9">
         <v>0.9999999999999996</v>
       </c>
-      <c r="AL9">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2918,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2126274514699924</v>
       </c>
       <c r="E10">
-        <v>0.2126274514699924</v>
+        <v>0.2295675623784894</v>
       </c>
       <c r="F10">
-        <v>0.2295675623784894</v>
+        <v>0.3120652789048611</v>
       </c>
       <c r="G10">
-        <v>0.3120652789048611</v>
+        <v>0.3615126184719842</v>
       </c>
       <c r="H10">
         <v>0.3615126184719842</v>
@@ -2939,79 +2876,79 @@
         <v>0.3615126184719842</v>
       </c>
       <c r="K10">
-        <v>0.3615126184719842</v>
+        <v>0.3849766393172065</v>
       </c>
       <c r="L10">
-        <v>0.3849766393172065</v>
+        <v>0.3898726067059671</v>
       </c>
       <c r="M10">
-        <v>0.3898726067059671</v>
+        <v>0.5216004787586781</v>
       </c>
       <c r="N10">
-        <v>0.5216004787586781</v>
+        <v>0.5386088340198515</v>
       </c>
       <c r="O10">
         <v>0.5386088340198515</v>
       </c>
       <c r="P10">
-        <v>0.5386088340198515</v>
+        <v>0.6101671952514633</v>
       </c>
       <c r="Q10">
-        <v>0.6101671952514633</v>
+        <v>0.629709202990728</v>
       </c>
       <c r="R10">
-        <v>0.629709202990728</v>
+        <v>0.771527391963178</v>
       </c>
       <c r="S10">
-        <v>0.771527391963178</v>
+        <v>0.8258412065991217</v>
       </c>
       <c r="T10">
-        <v>0.8258412065991217</v>
+        <v>0.8359966321300598</v>
       </c>
       <c r="U10">
         <v>0.8359966321300598</v>
       </c>
       <c r="V10">
-        <v>0.8359966321300598</v>
+        <v>0.8390416159168157</v>
       </c>
       <c r="W10">
-        <v>0.8390416159168157</v>
+        <v>0.8493944011812617</v>
       </c>
       <c r="X10">
-        <v>0.8493944011812617</v>
+        <v>0.8525296776264003</v>
       </c>
       <c r="Y10">
-        <v>0.8525296776264003</v>
+        <v>0.8628313228903995</v>
       </c>
       <c r="Z10">
-        <v>0.8628313228903995</v>
+        <v>0.8709044463723933</v>
       </c>
       <c r="AA10">
-        <v>0.8709044463723933</v>
+        <v>0.9338576010374785</v>
       </c>
       <c r="AB10">
-        <v>0.9338576010374785</v>
+        <v>0.9341484008709533</v>
       </c>
       <c r="AC10">
-        <v>0.9341484008709533</v>
+        <v>0.949593892738179</v>
       </c>
       <c r="AD10">
-        <v>0.949593892738179</v>
+        <v>0.9523216428020027</v>
       </c>
       <c r="AE10">
-        <v>0.9523216428020027</v>
+        <v>0.9688422315219664</v>
       </c>
       <c r="AF10">
-        <v>0.9688422315219664</v>
+        <v>0.9797817564494639</v>
       </c>
       <c r="AG10">
-        <v>0.9797817564494639</v>
+        <v>0.980279405216868</v>
       </c>
       <c r="AH10">
-        <v>0.980279405216868</v>
+        <v>0.9892109405147265</v>
       </c>
       <c r="AI10">
-        <v>0.9892109405147265</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -3019,13 +2956,10 @@
       <c r="AK10">
         <v>1</v>
       </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3034,109 +2968,106 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0004824025357074936</v>
+        <v>0.2175140595559246</v>
       </c>
       <c r="E11">
-        <v>0.2187761154574629</v>
+        <v>0.2365971310191336</v>
       </c>
       <c r="F11">
-        <v>0.2379275879285288</v>
+        <v>0.3359814588239237</v>
       </c>
       <c r="G11">
-        <v>0.3376681470769021</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="H11">
-        <v>0.4014973972252479</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="I11">
-        <v>0.4014973972252479</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="J11">
-        <v>0.4014973972252479</v>
+        <v>0.399582737726325</v>
       </c>
       <c r="K11">
-        <v>0.4014973972252479</v>
+        <v>0.4270302772177729</v>
       </c>
       <c r="L11">
-        <v>0.4290433191688093</v>
+        <v>0.4377303500520102</v>
       </c>
       <c r="M11">
-        <v>0.4397817451459051</v>
+        <v>0.5737820814142299</v>
       </c>
       <c r="N11">
-        <v>0.5763211378137904</v>
+        <v>0.5951363681228029</v>
       </c>
       <c r="O11">
-        <v>0.5977519664320736</v>
+        <v>0.5951363681228029</v>
       </c>
       <c r="P11">
-        <v>0.5977519664320736</v>
+        <v>0.667810333399966</v>
       </c>
       <c r="Q11">
-        <v>0.67068642292416</v>
+        <v>0.7037314454417687</v>
       </c>
       <c r="R11">
-        <v>0.7067362899345608</v>
+        <v>0.8134566877364628</v>
       </c>
       <c r="S11">
-        <v>0.8168548293551802</v>
+        <v>0.8670135860392997</v>
       </c>
       <c r="T11">
-        <v>0.870603696012203</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="U11">
-        <v>0.8866647079002508</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="V11">
-        <v>0.8866647079002508</v>
+        <v>0.8830172347453777</v>
       </c>
       <c r="W11">
-        <v>0.8866647079002508</v>
+        <v>0.8871676451144873</v>
       </c>
       <c r="X11">
-        <v>0.890829994923405</v>
+        <v>0.8886726921735698</v>
       </c>
       <c r="Y11">
-        <v>0.8923404366452865</v>
+        <v>0.8999600876380801</v>
       </c>
       <c r="Z11">
-        <v>0.9036682904410115</v>
+        <v>0.9024551995158816</v>
       </c>
       <c r="AA11">
-        <v>0.9061723457516082</v>
+        <v>0.9624923879700636</v>
       </c>
       <c r="AB11">
-        <v>0.9664247303919535</v>
+        <v>0.9665700044959842</v>
       </c>
       <c r="AC11">
-        <v>0.9705169626510156</v>
+        <v>0.97583077354982</v>
       </c>
       <c r="AD11">
-        <v>0.9798109258339009</v>
+        <v>0.9769333821315077</v>
       </c>
       <c r="AE11">
-        <v>0.9809174865853642</v>
+        <v>0.9864435094307591</v>
       </c>
       <c r="AF11">
-        <v>0.9904617018087409</v>
+        <v>0.9893124529823869</v>
       </c>
       <c r="AG11">
-        <v>0.9933409287484907</v>
+        <v>0.9893124529823869</v>
       </c>
       <c r="AH11">
-        <v>0.9933409287484907</v>
+        <v>0.9959477408310439</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3154,57 +3085,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3222,39 +3153,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7227072555994847</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5468623742778209</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -3263,30 +3194,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3304,30 +3235,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3345,30 +3276,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3386,39 +3317,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5368793562912595</v>
+        <v>0.5886857991974532</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3427,30 +3358,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3468,30 +3399,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3509,30 +3440,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3550,36 +3481,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5763211378137904</v>
+        <v>0.5737820814142299</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -3591,16 +3522,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3618,57 +3549,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3686,39 +3617,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7227072555994847</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7579296851575668</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -3727,36 +3658,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7172356392188514</v>
+        <v>0.7172356392188513</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3768,30 +3699,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3809,30 +3740,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3850,39 +3781,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7191912963191404</v>
+        <v>0.8421307078035669</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -3891,30 +3822,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3932,30 +3863,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3973,30 +3904,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4014,36 +3945,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7067362899345608</v>
+        <v>0.7037314454417687</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -4055,16 +3986,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4082,57 +4013,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4150,39 +4081,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8160829444548823</v>
+        <v>0.8098354298779493</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4191,36 +4122,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8304946674845186</v>
+        <v>0.8304946674845184</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -4232,30 +4163,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4273,30 +4204,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4314,39 +4245,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8556079858424187</v>
+        <v>0.8421307078035669</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4355,30 +4286,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4396,30 +4327,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4437,30 +4368,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4478,36 +4409,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8168548293551802</v>
+        <v>0.8134566877364628</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4519,16 +4450,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4546,57 +4477,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4614,39 +4545,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9071230283047674</v>
+        <v>0.9048433707681228</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -4655,36 +4586,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9505067105946768</v>
+        <v>0.9505067105946766</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -4696,36 +4627,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.945672731103184</v>
+        <v>0.9456727311031841</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -4737,30 +4668,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4778,39 +4709,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9062206469673448</v>
+        <v>0.9161984012006602</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>28</v>
@@ -4819,30 +4750,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4860,30 +4791,30 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4901,30 +4832,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4942,27 +4873,27 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -4971,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9036682904410115</v>
+        <v>0.9024551995158816</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>28</v>
@@ -4983,16 +4914,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/28_11R22.xlsx
@@ -162,40 +162,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -695,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05297038464616081</v>
+        <v>0.04040526437928207</v>
       </c>
       <c r="E2">
-        <v>0.1356762298869252</v>
+        <v>0.1776170742205388</v>
       </c>
       <c r="F2">
-        <v>0.1994750483853086</v>
+        <v>0.2834614837228353</v>
       </c>
       <c r="G2">
-        <v>0.2006395413159719</v>
+        <v>0.2853934170958457</v>
       </c>
       <c r="H2">
-        <v>0.007318663073265654</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04400348784835137</v>
+        <v>0.02552887765346483</v>
       </c>
       <c r="J2">
-        <v>0.02410957867706498</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02751691816342766</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.06353779161999124</v>
+        <v>0.05793695191584473</v>
       </c>
       <c r="P2">
-        <v>0.0290398634109632</v>
+        <v>0.0007037158422062218</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03816256716667495</v>
+        <v>0.01583859160972786</v>
       </c>
       <c r="S2">
-        <v>0.0708673086435348</v>
+        <v>0.07009686991359979</v>
       </c>
       <c r="T2">
-        <v>0.000274576494853592</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.002738795501720588</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01007202049086012</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04291806153536796</v>
+        <v>0.02372811848801264</v>
       </c>
       <c r="AC2">
-        <v>0.001637287706416448</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.04024271955301729</v>
+        <v>0.0192896351586421</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.007363811180126733</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00143534469999695</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -814,28 +814,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3836777703248824</v>
+        <v>0.3771699358292153</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3390294852746024</v>
+        <v>0.3335459243739012</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02775523124625909</v>
+        <v>0.02941259409738639</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05937294303220547</v>
+        <v>0.06030496587801974</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.002294093925024129</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.09500794089017352</v>
+        <v>0.09512246341494565</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03339421420575456</v>
+        <v>0.03492221349137493</v>
       </c>
       <c r="T3">
-        <v>0.0149539140430099</v>
+        <v>0.01690495113442</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01018750739529834</v>
+        <v>0.01224789033205554</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03662099358781446</v>
+        <v>0.03807496752365706</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -924,31 +924,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2777137229045041</v>
+        <v>0.3322796231914106</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1774583878446083</v>
+        <v>0.2015608537323301</v>
       </c>
       <c r="H4">
-        <v>0.03238789157352606</v>
+        <v>0.01240945599330093</v>
       </c>
       <c r="I4">
-        <v>0.007075103081405495</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08934626048058314</v>
+        <v>0.08667510868379016</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1332542733342242</v>
+        <v>0.1439249438790186</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.03451075936593603</v>
+        <v>0.01517737518066747</v>
       </c>
       <c r="Q4">
-        <v>0.07874826889973113</v>
+        <v>0.07285682741866834</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1200120431101582</v>
+        <v>0.1266589496179693</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001572664224808762</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.02935643246147893</v>
+        <v>0.008456862302844722</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01856419271903557</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1037,25 +1037,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1301141207654352</v>
+        <v>0.1320388749966021</v>
       </c>
       <c r="F5">
-        <v>0.02220605487709263</v>
+        <v>0.01883310860511831</v>
       </c>
       <c r="G5">
-        <v>0.2993243146660582</v>
+        <v>0.3095563712474639</v>
       </c>
       <c r="H5">
-        <v>0.1831472607901927</v>
+        <v>0.1876756544275466</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03346136526426405</v>
+        <v>0.03064099365860639</v>
       </c>
       <c r="K5">
-        <v>0.04408908002606689</v>
+        <v>0.04179047154698685</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1147754313673516</v>
+        <v>0.1159471391800437</v>
       </c>
       <c r="Q5">
-        <v>0.04841708252249372</v>
+        <v>0.04633095548133178</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.07013802082422903</v>
+        <v>0.06911827399127944</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04832344834140326</v>
+        <v>0.04623272437002865</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.006003820555412632</v>
+        <v>0.001835432494992266</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005002932404594483</v>
       </c>
       <c r="E6">
-        <v>0.3646139365389375</v>
+        <v>0.3374502054480216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2061356765166351</v>
+        <v>0.1965241541867796</v>
       </c>
       <c r="H6">
-        <v>0.02432872310287647</v>
+        <v>0.03485317147387029</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01114526996469504</v>
+        <v>0.0231298474514455</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06193224551067783</v>
+        <v>0.06829192784145859</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01321896828010706</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1553582875855918</v>
+        <v>0.151370598649249</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1764858607805863</v>
+        <v>0.1701581942644737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4431557311930721</v>
+        <v>0.2680546582883639</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1455300680043812</v>
+        <v>0.1196990360450155</v>
       </c>
       <c r="H7">
-        <v>0.03272311780420604</v>
+        <v>0.0634688537716835</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1287,28 +1287,28 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.01389591376997547</v>
+        <v>0.05408417390343587</v>
       </c>
       <c r="N7">
-        <v>0.2068258770319322</v>
+        <v>0.1502527785945166</v>
       </c>
       <c r="O7">
-        <v>0.008710618960301642</v>
+        <v>0.05149949209286008</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.03324353904351229</v>
       </c>
       <c r="R7">
-        <v>0.06535707443679159</v>
+        <v>0.07973570015387961</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.0471575637721125</v>
       </c>
       <c r="T7">
-        <v>0.08380159879933981</v>
+        <v>0.08892962805469248</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.04387457627992779</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1543911917533435</v>
+        <v>0.2071706625303806</v>
       </c>
       <c r="E8">
-        <v>0.04102669884218635</v>
+        <v>0.01924591336521996</v>
       </c>
       <c r="F8">
-        <v>0.08727672018643186</v>
+        <v>0.09591474887804793</v>
       </c>
       <c r="G8">
-        <v>0.03360953575887485</v>
+        <v>0.006950454036162086</v>
       </c>
       <c r="H8">
-        <v>0.001318731795652535</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1394,34 +1394,34 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02438371834142813</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2220360007878049</v>
+        <v>0.3193057186108478</v>
       </c>
       <c r="N8">
-        <v>0.008685998009897963</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.08717717278133869</v>
+        <v>0.09574972876767847</v>
       </c>
       <c r="Q8">
-        <v>0.004472512155076398</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1065156295587459</v>
+        <v>0.127807161794646</v>
       </c>
       <c r="S8">
-        <v>0.01987413724621212</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.006996857440131413</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1430,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02630769125026503</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.01718410727177015</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.03321342888643774</v>
+        <v>0.006293826173823589</v>
       </c>
       <c r="AA8">
-        <v>0.102748143472314</v>
+        <v>0.1215617858431935</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01652877356140047</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.002171052474924364</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.002577011832475159</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001504886593288575</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1486,88 +1486,88 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1788186158131467</v>
+        <v>0.2733890750496131</v>
       </c>
       <c r="E9">
-        <v>0.02209860809295809</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09719498806463224</v>
+        <v>0.1234548510736045</v>
       </c>
       <c r="G9">
-        <v>0.05931098154901403</v>
+        <v>0.05386582060902007</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003485089925620689</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01261742439425821</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1833995291387309</v>
+        <v>0.2818037425119437</v>
       </c>
       <c r="N9">
-        <v>0.04243129725092648</v>
+        <v>0.02285957356997156</v>
       </c>
       <c r="O9">
-        <v>0.002123546320110294</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.07318358311951975</v>
+        <v>0.0793483654110059</v>
       </c>
       <c r="Q9">
-        <v>0.02196445393172372</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.03951254251402727</v>
+        <v>0.01749812078326609</v>
       </c>
       <c r="S9">
-        <v>0.03201134109491233</v>
+        <v>0.003719183915525592</v>
       </c>
       <c r="T9">
-        <v>0.005936420839470588</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.003276018411073404</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.0008267670861836623</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.03020299211875048</v>
+        <v>0.0003974325072935488</v>
       </c>
       <c r="X9">
-        <v>0.00598617971657023</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02793544334693678</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.02073210891982968</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.1081966826893902</v>
+        <v>0.1436638345687558</v>
       </c>
       <c r="AB9">
-        <v>0.0007946395871883999</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.02423536756947906</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.001378536951427091</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>9.227508959011932E-05</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.00164139533381585</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.0006131711307135677</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2126274514699924</v>
+        <v>0.3219718491368543</v>
       </c>
       <c r="E10">
-        <v>0.01694011090849707</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08249771652637171</v>
+        <v>0.09262308900657584</v>
       </c>
       <c r="G10">
-        <v>0.04944733956712312</v>
+        <v>0.03437304353675234</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1620,79 +1620,79 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02346402084522233</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.004895967388760553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1317278720527109</v>
+        <v>0.1793893852407033</v>
       </c>
       <c r="N10">
-        <v>0.01700835526117341</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.07155836123161188</v>
+        <v>0.07334288702533943</v>
       </c>
       <c r="Q10">
-        <v>0.01954200773926466</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.14181818897245</v>
+        <v>0.197173189041321</v>
       </c>
       <c r="S10">
-        <v>0.05431381463594378</v>
+        <v>0.04295002268546492</v>
       </c>
       <c r="T10">
-        <v>0.01015542553093807</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.003044983786755931</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01035278526444609</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.003135276445138575</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01030164526399925</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.00807312348199375</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.06295315466508522</v>
+        <v>0.05817653432698892</v>
       </c>
       <c r="AB10">
-        <v>0.0002907998334747957</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.01544549186722567</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.002727750063823698</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01652058871996369</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.01093952492749753</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.0004976487674041297</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.008931535297858503</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01078905948527357</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2175140595559246</v>
+        <v>0.3228584966627196</v>
       </c>
       <c r="E11">
-        <v>0.019083071463209</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0993843278047901</v>
+        <v>0.1198915594177243</v>
       </c>
       <c r="G11">
-        <v>0.06360127890240132</v>
+        <v>0.05841020554225515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1733,34 +1733,34 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02744753949144789</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01070007283423736</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.1360517313622197</v>
+        <v>0.1828923847514893</v>
       </c>
       <c r="N11">
-        <v>0.02135428670857296</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.07267396527716311</v>
+        <v>0.07399862125075113</v>
       </c>
       <c r="Q11">
-        <v>0.03592111204180266</v>
+        <v>0.01085097886118576</v>
       </c>
       <c r="R11">
-        <v>0.1097252422946942</v>
+        <v>0.1376590063696054</v>
       </c>
       <c r="S11">
-        <v>0.05355689830283687</v>
+        <v>0.04115225416459898</v>
       </c>
       <c r="T11">
-        <v>0.01600364870607804</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1769,43 +1769,43 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.004150410369109583</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.001505047059082474</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.01128739546451026</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.002495111877801517</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.06003718845418209</v>
+        <v>0.05228649297967033</v>
       </c>
       <c r="AB11">
-        <v>0.004077616525920535</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.009260769053835754</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.001102608581687768</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.009510127299251435</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.002868943551627778</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.006635287848656949</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.004052259168956086</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1951,106 +1951,106 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05297038464616081</v>
+        <v>0.04040526437928207</v>
       </c>
       <c r="E2">
-        <v>0.188646614533086</v>
+        <v>0.2180223385998209</v>
       </c>
       <c r="F2">
-        <v>0.3881216629183946</v>
+        <v>0.5014838223226561</v>
       </c>
       <c r="G2">
-        <v>0.5887612042343665</v>
+        <v>0.7868772394185017</v>
       </c>
       <c r="H2">
-        <v>0.5960798673076322</v>
+        <v>0.7868772394185017</v>
       </c>
       <c r="I2">
-        <v>0.6400833551559836</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="J2">
-        <v>0.6641929338330486</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="K2">
-        <v>0.6641929338330486</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="L2">
-        <v>0.6641929338330486</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="M2">
-        <v>0.6641929338330486</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="N2">
-        <v>0.6917098519964762</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="O2">
-        <v>0.7552476436164675</v>
+        <v>0.8703430689878112</v>
       </c>
       <c r="P2">
-        <v>0.7842875070274307</v>
+        <v>0.8710467848300174</v>
       </c>
       <c r="Q2">
-        <v>0.7842875070274307</v>
+        <v>0.8710467848300174</v>
       </c>
       <c r="R2">
-        <v>0.8224500741941057</v>
+        <v>0.8868853764397453</v>
       </c>
       <c r="S2">
-        <v>0.8933173828376404</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="T2">
-        <v>0.893591959332494</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="U2">
-        <v>0.893591959332494</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="V2">
-        <v>0.893591959332494</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="W2">
-        <v>0.893591959332494</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="X2">
-        <v>0.8963307548342146</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="Y2">
-        <v>0.8963307548342146</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="Z2">
-        <v>0.8963307548342146</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="AA2">
-        <v>0.9064027753250747</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="AB2">
-        <v>0.9493208368604427</v>
+        <v>0.9807103648413577</v>
       </c>
       <c r="AC2">
-        <v>0.9509581245668591</v>
+        <v>0.9807103648413577</v>
       </c>
       <c r="AD2">
-        <v>0.9912008441198764</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.9912008441198764</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.9912008441198764</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.9985646553000032</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.9985646553000032</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2070,100 +2070,100 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3836777703248824</v>
+        <v>0.3771699358292153</v>
       </c>
       <c r="G3">
-        <v>0.3836777703248824</v>
+        <v>0.3771699358292153</v>
       </c>
       <c r="H3">
-        <v>0.7227072555994847</v>
+        <v>0.7107158602031165</v>
       </c>
       <c r="I3">
-        <v>0.7227072555994847</v>
+        <v>0.7107158602031165</v>
       </c>
       <c r="J3">
-        <v>0.7504624868457438</v>
+        <v>0.7401284543005029</v>
       </c>
       <c r="K3">
-        <v>0.7504624868457438</v>
+        <v>0.7401284543005029</v>
       </c>
       <c r="L3">
-        <v>0.8098354298779493</v>
+        <v>0.8004334201785226</v>
       </c>
       <c r="M3">
-        <v>0.8098354298779493</v>
+        <v>0.8027275141035467</v>
       </c>
       <c r="N3">
-        <v>0.8098354298779493</v>
+        <v>0.8027275141035467</v>
       </c>
       <c r="O3">
-        <v>0.8098354298779493</v>
+        <v>0.8027275141035467</v>
       </c>
       <c r="P3">
-        <v>0.8098354298779493</v>
+        <v>0.8027275141035467</v>
       </c>
       <c r="Q3">
-        <v>0.9048433707681228</v>
+        <v>0.8978499775184924</v>
       </c>
       <c r="R3">
-        <v>0.9048433707681228</v>
+        <v>0.8978499775184924</v>
       </c>
       <c r="S3">
-        <v>0.9382375849738774</v>
+        <v>0.9327721910098673</v>
       </c>
       <c r="T3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="U3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="V3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="W3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="X3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="Y3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="Z3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="AA3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="AB3">
-        <v>0.9531914990168874</v>
+        <v>0.9496771421442873</v>
       </c>
       <c r="AC3">
-        <v>0.9633790064121858</v>
+        <v>0.9619250324763429</v>
       </c>
       <c r="AD3">
-        <v>0.9633790064121858</v>
+        <v>0.9619250324763429</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2180,103 +2180,103 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2777137229045041</v>
+        <v>0.3322796231914106</v>
       </c>
       <c r="F4">
-        <v>0.2777137229045041</v>
+        <v>0.3322796231914106</v>
       </c>
       <c r="G4">
-        <v>0.4551721107491124</v>
+        <v>0.5338404769237406</v>
       </c>
       <c r="H4">
-        <v>0.4875600023226385</v>
+        <v>0.5462499329170415</v>
       </c>
       <c r="I4">
-        <v>0.494635105404044</v>
+        <v>0.5462499329170415</v>
       </c>
       <c r="J4">
-        <v>0.494635105404044</v>
+        <v>0.5462499329170415</v>
       </c>
       <c r="K4">
-        <v>0.5839813658846271</v>
+        <v>0.6329250416008316</v>
       </c>
       <c r="L4">
-        <v>0.5839813658846271</v>
+        <v>0.6329250416008316</v>
       </c>
       <c r="M4">
-        <v>0.7172356392188513</v>
+        <v>0.7768499854798503</v>
       </c>
       <c r="N4">
-        <v>0.7172356392188513</v>
+        <v>0.7768499854798503</v>
       </c>
       <c r="O4">
-        <v>0.7172356392188513</v>
+        <v>0.7768499854798503</v>
       </c>
       <c r="P4">
-        <v>0.7517463985847873</v>
+        <v>0.7920273606605177</v>
       </c>
       <c r="Q4">
-        <v>0.8304946674845184</v>
+        <v>0.864884188079186</v>
       </c>
       <c r="R4">
-        <v>0.8304946674845184</v>
+        <v>0.864884188079186</v>
       </c>
       <c r="S4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="T4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="U4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="V4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="W4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="X4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="Y4">
-        <v>0.9505067105946766</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="Z4">
-        <v>0.9520793748194853</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="AA4">
-        <v>0.9520793748194853</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="AB4">
-        <v>0.9520793748194853</v>
+        <v>0.9915431376971553</v>
       </c>
       <c r="AC4">
-        <v>0.9814358072809642</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9814358072809642</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,103 +2293,103 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1301141207654352</v>
+        <v>0.1320388749966021</v>
       </c>
       <c r="F5">
-        <v>0.1523201756425279</v>
+        <v>0.1508719836017204</v>
       </c>
       <c r="G5">
-        <v>0.4516444903085861</v>
+        <v>0.4604283548491843</v>
       </c>
       <c r="H5">
-        <v>0.6347917510987787</v>
+        <v>0.648104009276731</v>
       </c>
       <c r="I5">
-        <v>0.6347917510987787</v>
+        <v>0.648104009276731</v>
       </c>
       <c r="J5">
-        <v>0.6682531163630427</v>
+        <v>0.6787450029353373</v>
       </c>
       <c r="K5">
-        <v>0.7123421963891097</v>
+        <v>0.7205354744823242</v>
       </c>
       <c r="L5">
-        <v>0.7123421963891097</v>
+        <v>0.7205354744823242</v>
       </c>
       <c r="M5">
-        <v>0.7123421963891097</v>
+        <v>0.7205354744823242</v>
       </c>
       <c r="N5">
-        <v>0.7123421963891097</v>
+        <v>0.7205354744823242</v>
       </c>
       <c r="O5">
-        <v>0.7123421963891097</v>
+        <v>0.7205354744823242</v>
       </c>
       <c r="P5">
-        <v>0.8271176277564612</v>
+        <v>0.836482613662368</v>
       </c>
       <c r="Q5">
-        <v>0.875534710278955</v>
+        <v>0.8828135691436998</v>
       </c>
       <c r="R5">
-        <v>0.875534710278955</v>
+        <v>0.8828135691436998</v>
       </c>
       <c r="S5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="T5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="U5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="V5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="W5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="X5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="Y5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="Z5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="AA5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="AB5">
-        <v>0.9456727311031841</v>
+        <v>0.9519318431349792</v>
       </c>
       <c r="AC5">
-        <v>0.9939961794445873</v>
+        <v>0.9981645675050079</v>
       </c>
       <c r="AD5">
-        <v>0.9939961794445873</v>
+        <v>0.9981645675050079</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2403,106 +2403,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005002932404594483</v>
       </c>
       <c r="E6">
-        <v>0.3646139365389375</v>
+        <v>0.3424531378526161</v>
       </c>
       <c r="F6">
-        <v>0.3646139365389375</v>
+        <v>0.3424531378526161</v>
       </c>
       <c r="G6">
-        <v>0.5707496130555727</v>
+        <v>0.5389772920393956</v>
       </c>
       <c r="H6">
-        <v>0.5950783361584492</v>
+        <v>0.5738304635132658</v>
       </c>
       <c r="I6">
-        <v>0.5950783361584492</v>
+        <v>0.5738304635132658</v>
       </c>
       <c r="J6">
-        <v>0.5950783361584492</v>
+        <v>0.5738304635132658</v>
       </c>
       <c r="K6">
-        <v>0.6062236061231442</v>
+        <v>0.5969603109647114</v>
       </c>
       <c r="L6">
-        <v>0.6062236061231442</v>
+        <v>0.5969603109647114</v>
       </c>
       <c r="M6">
-        <v>0.668155851633822</v>
+        <v>0.6652522388061699</v>
       </c>
       <c r="N6">
-        <v>0.668155851633822</v>
+        <v>0.678471207086277</v>
       </c>
       <c r="O6">
-        <v>0.668155851633822</v>
+        <v>0.678471207086277</v>
       </c>
       <c r="P6">
-        <v>0.668155851633822</v>
+        <v>0.678471207086277</v>
       </c>
       <c r="Q6">
-        <v>0.8235141392194137</v>
+        <v>0.829841805735526</v>
       </c>
       <c r="R6">
-        <v>0.8235141392194137</v>
+        <v>0.829841805735526</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2519,73 +2519,73 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4431557311930721</v>
+        <v>0.2680546582883639</v>
       </c>
       <c r="F7">
-        <v>0.4431557311930721</v>
+        <v>0.2680546582883639</v>
       </c>
       <c r="G7">
-        <v>0.5886857991974532</v>
+        <v>0.3877536943333794</v>
       </c>
       <c r="H7">
-        <v>0.6214089170016592</v>
+        <v>0.4512225481050628</v>
       </c>
       <c r="I7">
-        <v>0.6214089170016592</v>
+        <v>0.4512225481050628</v>
       </c>
       <c r="J7">
-        <v>0.6214089170016592</v>
+        <v>0.4512225481050628</v>
       </c>
       <c r="K7">
-        <v>0.6214089170016592</v>
+        <v>0.4512225481050628</v>
       </c>
       <c r="L7">
-        <v>0.6214089170016592</v>
+        <v>0.4512225481050628</v>
       </c>
       <c r="M7">
-        <v>0.6353048307716347</v>
+        <v>0.5053067220084987</v>
       </c>
       <c r="N7">
-        <v>0.8421307078035669</v>
+        <v>0.6555595006030153</v>
       </c>
       <c r="O7">
-        <v>0.8508413267638686</v>
+        <v>0.7070589926958754</v>
       </c>
       <c r="P7">
-        <v>0.8508413267638686</v>
+        <v>0.7070589926958754</v>
       </c>
       <c r="Q7">
-        <v>0.8508413267638686</v>
+        <v>0.7403025317393876</v>
       </c>
       <c r="R7">
-        <v>0.9161984012006602</v>
+        <v>0.8200382318932673</v>
       </c>
       <c r="S7">
-        <v>0.9161984012006602</v>
+        <v>0.8671957956653797</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.9561254237200723</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1543911917533435</v>
+        <v>0.2071706625303806</v>
       </c>
       <c r="E8">
-        <v>0.1954178905955299</v>
+        <v>0.2264165758956005</v>
       </c>
       <c r="F8">
-        <v>0.2826946107819617</v>
+        <v>0.3223313247736485</v>
       </c>
       <c r="G8">
-        <v>0.3163041465408366</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="H8">
-        <v>0.3176228783364892</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="I8">
-        <v>0.3176228783364892</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="J8">
-        <v>0.3176228783364892</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="K8">
-        <v>0.3420065966779173</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="L8">
-        <v>0.3420065966779173</v>
+        <v>0.3292817788098105</v>
       </c>
       <c r="M8">
-        <v>0.5640425974657222</v>
+        <v>0.6485874974206584</v>
       </c>
       <c r="N8">
-        <v>0.5727285954756202</v>
+        <v>0.6485874974206584</v>
       </c>
       <c r="O8">
-        <v>0.5727285954756202</v>
+        <v>0.6485874974206584</v>
       </c>
       <c r="P8">
-        <v>0.6599057682569589</v>
+        <v>0.7443372261883369</v>
       </c>
       <c r="Q8">
-        <v>0.6643782804120353</v>
+        <v>0.7443372261883369</v>
       </c>
       <c r="R8">
-        <v>0.7708939099707812</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="S8">
-        <v>0.7907680472169933</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="T8">
-        <v>0.7977649046571248</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="U8">
-        <v>0.7977649046571248</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="V8">
-        <v>0.7977649046571248</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="W8">
-        <v>0.8240725959073898</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="X8">
-        <v>0.8240725959073898</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="Y8">
-        <v>0.8412567031791599</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="Z8">
-        <v>0.8744701320655976</v>
+        <v>0.8784382141568065</v>
       </c>
       <c r="AA8">
-        <v>0.9772182755379116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.9772182755379116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.9937470490993121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.9937470490993121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>0.9959181015742364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.9959181015742364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.9959181015742364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9984951134067116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,106 +2742,106 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1788186158131467</v>
+        <v>0.2733890750496131</v>
       </c>
       <c r="E9">
-        <v>0.2009172239061048</v>
+        <v>0.2733890750496131</v>
       </c>
       <c r="F9">
-        <v>0.2981122119707371</v>
+        <v>0.3968439261232176</v>
       </c>
       <c r="G9">
-        <v>0.3574231935197511</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="H9">
-        <v>0.3574231935197511</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="I9">
-        <v>0.3609082834453718</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="J9">
-        <v>0.3609082834453718</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="K9">
-        <v>0.37352570783963</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="L9">
-        <v>0.37352570783963</v>
+        <v>0.4507097467322377</v>
       </c>
       <c r="M9">
-        <v>0.5569252369783608</v>
+        <v>0.7325134892441814</v>
       </c>
       <c r="N9">
-        <v>0.5993565342292873</v>
+        <v>0.755373062814153</v>
       </c>
       <c r="O9">
-        <v>0.6014800805493975</v>
+        <v>0.755373062814153</v>
       </c>
       <c r="P9">
-        <v>0.6746636636689173</v>
+        <v>0.8347214282251588</v>
       </c>
       <c r="Q9">
-        <v>0.696628117600641</v>
+        <v>0.8347214282251588</v>
       </c>
       <c r="R9">
-        <v>0.7361406601146683</v>
+        <v>0.8522195490084249</v>
       </c>
       <c r="S9">
-        <v>0.7681520012095806</v>
+        <v>0.8559387329239505</v>
       </c>
       <c r="T9">
-        <v>0.7740884220490512</v>
+        <v>0.8559387329239505</v>
       </c>
       <c r="U9">
-        <v>0.7773644404601245</v>
+        <v>0.8559387329239505</v>
       </c>
       <c r="V9">
-        <v>0.7781912075463082</v>
+        <v>0.8559387329239505</v>
       </c>
       <c r="W9">
-        <v>0.8083941996650587</v>
+        <v>0.856336165431244</v>
       </c>
       <c r="X9">
-        <v>0.8143803793816289</v>
+        <v>0.856336165431244</v>
       </c>
       <c r="Y9">
-        <v>0.8423158227285656</v>
+        <v>0.856336165431244</v>
       </c>
       <c r="Z9">
-        <v>0.8630479316483953</v>
+        <v>0.856336165431244</v>
       </c>
       <c r="AA9">
-        <v>0.9712446143377855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9720392539249739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.996274621494453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9976531584458801</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9977454335354702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9977454335354702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9977454335354702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.999386828869286</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,97 +2855,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2126274514699924</v>
+        <v>0.3219718491368543</v>
       </c>
       <c r="E10">
-        <v>0.2295675623784894</v>
+        <v>0.3219718491368543</v>
       </c>
       <c r="F10">
-        <v>0.3120652789048611</v>
+        <v>0.4145949381434302</v>
       </c>
       <c r="G10">
-        <v>0.3615126184719842</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="H10">
-        <v>0.3615126184719842</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="I10">
-        <v>0.3615126184719842</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="J10">
-        <v>0.3615126184719842</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="K10">
-        <v>0.3849766393172065</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="L10">
-        <v>0.3898726067059671</v>
+        <v>0.4489679816801825</v>
       </c>
       <c r="M10">
-        <v>0.5216004787586781</v>
+        <v>0.6283573669208858</v>
       </c>
       <c r="N10">
-        <v>0.5386088340198515</v>
+        <v>0.6283573669208858</v>
       </c>
       <c r="O10">
-        <v>0.5386088340198515</v>
+        <v>0.6283573669208858</v>
       </c>
       <c r="P10">
-        <v>0.6101671952514633</v>
+        <v>0.7017002539462253</v>
       </c>
       <c r="Q10">
-        <v>0.629709202990728</v>
+        <v>0.7017002539462253</v>
       </c>
       <c r="R10">
-        <v>0.771527391963178</v>
+        <v>0.8988734429875462</v>
       </c>
       <c r="S10">
-        <v>0.8258412065991217</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="T10">
-        <v>0.8359966321300598</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="U10">
-        <v>0.8359966321300598</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="V10">
-        <v>0.8390416159168157</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="W10">
-        <v>0.8493944011812617</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="X10">
-        <v>0.8525296776264003</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="Y10">
-        <v>0.8628313228903995</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="Z10">
-        <v>0.8709044463723933</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="AA10">
-        <v>0.9338576010374785</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9341484008709533</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.949593892738179</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9523216428020027</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9688422315219664</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9797817564494639</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.980279405216868</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9892109405147265</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2968,106 +2968,106 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2175140595559246</v>
+        <v>0.3228584966627196</v>
       </c>
       <c r="E11">
-        <v>0.2365971310191336</v>
+        <v>0.3228584966627196</v>
       </c>
       <c r="F11">
-        <v>0.3359814588239237</v>
+        <v>0.4427500560804439</v>
       </c>
       <c r="G11">
-        <v>0.399582737726325</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="H11">
-        <v>0.399582737726325</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="I11">
-        <v>0.399582737726325</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="J11">
-        <v>0.399582737726325</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="K11">
-        <v>0.4270302772177729</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="L11">
-        <v>0.4377303500520102</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="M11">
-        <v>0.5737820814142299</v>
+        <v>0.6840526463741883</v>
       </c>
       <c r="N11">
-        <v>0.5951363681228029</v>
+        <v>0.6840526463741883</v>
       </c>
       <c r="O11">
-        <v>0.5951363681228029</v>
+        <v>0.6840526463741883</v>
       </c>
       <c r="P11">
-        <v>0.667810333399966</v>
+        <v>0.7580512676249394</v>
       </c>
       <c r="Q11">
-        <v>0.7037314454417687</v>
+        <v>0.7689022464861252</v>
       </c>
       <c r="R11">
-        <v>0.8134566877364628</v>
+        <v>0.9065612528557305</v>
       </c>
       <c r="S11">
-        <v>0.8670135860392997</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="T11">
-        <v>0.8830172347453777</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="U11">
-        <v>0.8830172347453777</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="V11">
-        <v>0.8830172347453777</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="W11">
-        <v>0.8871676451144873</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="X11">
-        <v>0.8886726921735698</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="Y11">
-        <v>0.8999600876380801</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="Z11">
-        <v>0.9024551995158816</v>
+        <v>0.9477135070203295</v>
       </c>
       <c r="AA11">
-        <v>0.9624923879700636</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.9665700044959842</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.97583077354982</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9769333821315077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.9864435094307591</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9893124529823869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9893124529823869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9959477408310439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3129,34 +3129,34 @@
         <v>37</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5014838223226561</v>
       </c>
       <c r="F2">
-        <v>0.5887612042343665</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>28</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3170,34 +3170,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.7107158602031165</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7227072555994847</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>28</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3211,34 +3211,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5338404769237406</v>
       </c>
       <c r="F4">
-        <v>0.5839813658846271</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>28</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3252,34 +3252,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.648104009276731</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6347917510987787</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>28</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3293,34 +3293,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5389772920393956</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5707496130555727</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>28</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3334,34 +3334,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5053067220084987</v>
       </c>
       <c r="F7">
-        <v>0.5886857991974532</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>28</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3375,34 +3375,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.6485874974206584</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5640425974657222</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>28</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3416,34 +3416,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7325134892441814</v>
+      </c>
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5569252369783608</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>28</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3457,34 +3457,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.6283573669208858</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5216004787586781</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>28</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3498,34 +3498,34 @@
         <v>46</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.501160261622699</v>
       </c>
       <c r="F11">
-        <v>0.5737820814142299</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>28</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -3593,34 +3593,34 @@
         <v>37</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7868772394185017</v>
       </c>
       <c r="F2">
-        <v>0.7552476436164675</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>28</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3634,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.7107158602031165</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7227072555994847</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>28</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3675,34 +3675,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.7768499854798503</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7172356392188513</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>28</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3716,34 +3716,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.7205354744823242</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7123421963891097</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>28</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3757,34 +3757,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.829841805735526</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8235141392194137</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>28</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3798,34 +3798,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7070589926958754</v>
       </c>
       <c r="F7">
-        <v>0.8421307078035669</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>28</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3839,34 +3839,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7443372261883369</v>
       </c>
       <c r="F8">
-        <v>0.7708939099707812</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>28</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3880,34 +3880,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7325134892441814</v>
       </c>
       <c r="F9">
-        <v>0.7361406601146683</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>28</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3921,34 +3921,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7017002539462253</v>
       </c>
       <c r="F10">
-        <v>0.771527391963178</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>28</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3962,34 +3962,34 @@
         <v>46</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7580512676249394</v>
       </c>
       <c r="F11">
-        <v>0.7037314454417687</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>28</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4057,34 +4057,34 @@
         <v>37</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8124061170719665</v>
       </c>
       <c r="F2">
-        <v>0.8224500741941057</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>28</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4098,34 +4098,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8004334201785226</v>
+      </c>
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8098354298779493</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>28</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4139,34 +4139,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.864884188079186</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8304946674845184</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>28</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4180,34 +4180,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.836482613662368</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8271176277564612</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>28</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4221,34 +4221,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.829841805735526</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8235141392194137</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>28</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4262,34 +4262,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8200382318932673</v>
       </c>
       <c r="F7">
-        <v>0.8421307078035669</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>28</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4303,34 +4303,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8721443879829829</v>
       </c>
       <c r="F8">
-        <v>0.8240725959073898</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>28</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4344,34 +4344,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8347214282251588</v>
       </c>
       <c r="F9">
-        <v>0.8083941996650587</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>28</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4385,34 +4385,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8988734429875462</v>
       </c>
       <c r="F10">
-        <v>0.8258412065991217</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>28</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4426,34 +4426,34 @@
         <v>46</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9065612528557305</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8134566877364628</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>28</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4521,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9569822463533451</v>
       </c>
       <c r="F2">
-        <v>0.9064027753250747</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>28</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4562,34 +4562,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9327721910098673</v>
       </c>
       <c r="F3">
-        <v>0.9048433707681228</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>28</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4603,34 +4603,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9915431376971553</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9505067105946766</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>28</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4644,34 +4644,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9519318431349792</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9456727311031841</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>28</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4685,34 +4685,34 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>28</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4726,34 +4726,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9561254237200723</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9161984012006602</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>28</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4767,34 +4767,34 @@
         <v>43</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9772182755379116</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>25</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>28</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4808,34 +4808,34 @@
         <v>44</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F9">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9712446143377855</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>28</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4849,34 +4849,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9418234656730111</v>
       </c>
       <c r="F10">
-        <v>0.9338576010374785</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>28</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4890,34 +4890,34 @@
         <v>46</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9065612528557305</v>
       </c>
       <c r="F11">
-        <v>0.9024551995158816</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>28</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
